--- a/map_data_files/GPS Coordinates - Sites and Species.xlsx
+++ b/map_data_files/GPS Coordinates - Sites and Species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravenskelton/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhimehrotra/Desktop/spongehunters/map_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46565062-0B8E-A94A-A9E1-6AA68DDFA56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92975D0-C59F-7F41-B4B1-EA37CF55D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate GPS Coordinates" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="27">
   <si>
     <t>Long</t>
   </si>
@@ -176,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
@@ -246,6 +252,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4051,7 +4062,7 @@
         <v>26.4</v>
       </c>
       <c r="I116">
-        <f>-F116-G116/60-H116/3600</f>
+        <f t="shared" ref="I116:I134" si="16">-F116-G116/60-H116/3600</f>
         <v>-90.407333333333341</v>
       </c>
     </row>
@@ -4069,7 +4080,7 @@
         <v>15.3</v>
       </c>
       <c r="E117" s="4">
-        <f>B117+C117/60+D117/3600</f>
+        <f t="shared" ref="E117:E134" si="17">B117+C117/60+D117/3600</f>
         <v>29.737583333333333</v>
       </c>
       <c r="F117" s="1">
@@ -4082,7 +4093,7 @@
         <v>50.4</v>
       </c>
       <c r="I117">
-        <f>-F117-G117/60-H117/3600</f>
+        <f t="shared" si="16"/>
         <v>-90.647333333333336</v>
       </c>
     </row>
@@ -4100,7 +4111,7 @@
         <v>48.4</v>
       </c>
       <c r="E118" s="4">
-        <f>B118+C118/60+D118/3600</f>
+        <f t="shared" si="17"/>
         <v>29.646777777777778</v>
       </c>
       <c r="F118" s="1">
@@ -4113,7 +4124,7 @@
         <v>27.4</v>
       </c>
       <c r="I118">
-        <f>-F118-G118/60-H118/3600</f>
+        <f t="shared" si="16"/>
         <v>-90.540944444444449</v>
       </c>
       <c r="L118" s="4"/>
@@ -4132,7 +4143,7 @@
         <v>0.3</v>
       </c>
       <c r="E119" s="4">
-        <f>B119+C119/60+D119/3600</f>
+        <f t="shared" si="17"/>
         <v>29.86675</v>
       </c>
       <c r="F119" s="1">
@@ -4145,7 +4156,7 @@
         <v>58.8</v>
       </c>
       <c r="I119">
-        <f>-F119-G119/60-H119/3600</f>
+        <f t="shared" si="16"/>
         <v>-90.599666666666664</v>
       </c>
     </row>
@@ -4163,7 +4174,7 @@
         <v>8.1359999999999992</v>
       </c>
       <c r="E120" s="4">
-        <f>B120+C120/60+D120/3600</f>
+        <f t="shared" si="17"/>
         <v>30.535593333333335</v>
       </c>
       <c r="F120" s="1">
@@ -4176,7 +4187,7 @@
         <v>22.564</v>
       </c>
       <c r="I120">
-        <f>-F120-G120/60-H120/3600</f>
+        <f t="shared" si="16"/>
         <v>-91.089601111111108</v>
       </c>
     </row>
@@ -4194,7 +4205,7 @@
         <v>2.2879999999999998</v>
       </c>
       <c r="E121" s="4">
-        <f>B121+C121/60+D121/3600</f>
+        <f t="shared" si="17"/>
         <v>30.533968888888889</v>
       </c>
       <c r="F121" s="1">
@@ -4207,7 +4218,7 @@
         <v>20.337</v>
       </c>
       <c r="I121">
-        <f>-F121-G121/60-H121/3600</f>
+        <f t="shared" si="16"/>
         <v>-91.0889825</v>
       </c>
     </row>
@@ -4225,7 +4236,7 @@
         <v>18.3</v>
       </c>
       <c r="E122" s="4">
-        <f>B122+C122/60+D122/3600</f>
+        <f t="shared" si="17"/>
         <v>32.271749999999997</v>
       </c>
       <c r="F122" s="1">
@@ -4238,7 +4249,7 @@
         <v>44.4</v>
       </c>
       <c r="I122">
-        <f>-F122-G122/60-H122/3600</f>
+        <f t="shared" si="16"/>
         <v>-93.512333333333331</v>
       </c>
     </row>
@@ -4256,7 +4267,7 @@
         <v>12.2</v>
       </c>
       <c r="E123" s="4">
-        <f>B123+C123/60+D123/3600</f>
+        <f t="shared" si="17"/>
         <v>32.336722222222228</v>
       </c>
       <c r="F123" s="1">
@@ -4269,7 +4280,7 @@
         <v>27.6</v>
       </c>
       <c r="I123">
-        <f>-F123-G123/60-H123/3600</f>
+        <f t="shared" si="16"/>
         <v>-93.741</v>
       </c>
     </row>
@@ -4287,7 +4298,7 @@
         <v>31.1</v>
       </c>
       <c r="E124" s="4">
-        <f>B124+C124/60+D124/3600</f>
+        <f t="shared" si="17"/>
         <v>32.491972222222223</v>
       </c>
       <c r="F124" s="1">
@@ -4300,7 +4311,7 @@
         <v>1.4</v>
       </c>
       <c r="I124">
-        <f>-F124-G124/60-H124/3600</f>
+        <f t="shared" si="16"/>
         <v>-93.850388888888887</v>
       </c>
     </row>
@@ -4318,7 +4329,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E125" s="4">
-        <f>B125+C125/60+D125/3600</f>
+        <f t="shared" si="17"/>
         <v>32.635750000000002</v>
       </c>
       <c r="F125" s="1">
@@ -4331,7 +4342,7 @@
         <v>30.8</v>
       </c>
       <c r="I125">
-        <f>-F125-G125/60-H125/3600</f>
+        <f t="shared" si="16"/>
         <v>-92.6418888888889</v>
       </c>
     </row>
@@ -4349,7 +4360,7 @@
         <v>50.6</v>
       </c>
       <c r="E126" s="4">
-        <f>B126+C126/60+D126/3600</f>
+        <f t="shared" si="17"/>
         <v>32.680722222222222</v>
       </c>
       <c r="F126" s="1">
@@ -4362,7 +4373,7 @@
         <v>59.5</v>
       </c>
       <c r="I126">
-        <f>-F126-G126/60-H126/3600</f>
+        <f t="shared" si="16"/>
         <v>-92.649861111111122</v>
       </c>
     </row>
@@ -4380,7 +4391,7 @@
         <v>26.9</v>
       </c>
       <c r="E127" s="4">
-        <f>B127+C127/60+D127/3600</f>
+        <f t="shared" si="17"/>
         <v>32.857472222222221</v>
       </c>
       <c r="F127" s="1">
@@ -4393,7 +4404,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="I127">
-        <f>-F127-G127/60-H127/3600</f>
+        <f t="shared" si="16"/>
         <v>-92.575611111111101</v>
       </c>
     </row>
@@ -4411,7 +4422,7 @@
         <v>57.4</v>
       </c>
       <c r="E128" s="4">
-        <f>B128+C128/60+D128/3600</f>
+        <f t="shared" si="17"/>
         <v>32.782611111111109</v>
       </c>
       <c r="F128" s="1">
@@ -4424,7 +4435,7 @@
         <v>26.9</v>
       </c>
       <c r="I128">
-        <f>-F128-G128/60-H128/3600</f>
+        <f t="shared" si="16"/>
         <v>-92.490805555555553</v>
       </c>
     </row>
@@ -4442,7 +4453,7 @@
         <v>47.7</v>
       </c>
       <c r="E129" s="4">
-        <f>B129+C129/60+D129/3600</f>
+        <f t="shared" si="17"/>
         <v>31.929916666666667</v>
       </c>
       <c r="F129" s="1">
@@ -4455,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="I129">
-        <f>-F129-G129/60-H129/3600</f>
+        <f t="shared" si="16"/>
         <v>-91.766944444444448</v>
       </c>
     </row>
@@ -4473,7 +4484,7 @@
         <v>42.6</v>
       </c>
       <c r="E130" s="4">
-        <f>B130+C130/60+D130/3600</f>
+        <f t="shared" si="17"/>
         <v>32.811833333333333</v>
       </c>
       <c r="F130" s="1">
@@ -4486,7 +4497,7 @@
         <v>32</v>
       </c>
       <c r="I130">
-        <f>-F130-G130/60-H130/3600</f>
+        <f t="shared" si="16"/>
         <v>-91.192222222222227</v>
       </c>
     </row>
@@ -4504,7 +4515,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="E131" s="4">
-        <f>B131+C131/60+D131/3600</f>
+        <f t="shared" si="17"/>
         <v>31.676027777777779</v>
       </c>
       <c r="F131" s="1">
@@ -4517,7 +4528,7 @@
         <v>5.2</v>
       </c>
       <c r="I131">
-        <f>-F131-G131/60-H131/3600</f>
+        <f t="shared" si="16"/>
         <v>-91.834777777777774</v>
       </c>
     </row>
@@ -4535,7 +4546,7 @@
         <v>34.4</v>
       </c>
       <c r="E132" s="4">
-        <f>B132+C132/60+D132/3600</f>
+        <f t="shared" si="17"/>
         <v>31.609555555555556</v>
       </c>
       <c r="F132" s="1">
@@ -4548,7 +4559,7 @@
         <v>29.3</v>
       </c>
       <c r="I132">
-        <f>-F132-G132/60-H132/3600</f>
+        <f t="shared" si="16"/>
         <v>-92.02480555555556</v>
       </c>
     </row>
@@ -4566,7 +4577,7 @@
         <v>22.367999999999999</v>
       </c>
       <c r="E133" s="4">
-        <f>B133+C133/60+D133/3600</f>
+        <f t="shared" si="17"/>
         <v>31.572880000000001</v>
       </c>
       <c r="F133" s="1">
@@ -4579,7 +4590,7 @@
         <v>23.7</v>
       </c>
       <c r="I133">
-        <f>-F133-G133/60-H133/3600</f>
+        <f t="shared" si="16"/>
         <v>-92.023250000000004</v>
       </c>
     </row>
@@ -4597,7 +4608,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E134" s="4">
-        <f>B134+C134/60+D134/3600</f>
+        <f t="shared" si="17"/>
         <v>31.30113888888889</v>
       </c>
       <c r="F134" s="1">
@@ -4610,7 +4621,7 @@
         <v>24.9</v>
       </c>
       <c r="I134">
-        <f>-F134-G134/60-H134/3600</f>
+        <f t="shared" si="16"/>
         <v>-92.156916666666675</v>
       </c>
     </row>
@@ -4628,7 +4639,7 @@
         <v>15.49</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" ref="E133:E144" si="16">B135+C135/60+D135/3600</f>
+        <f t="shared" ref="E135:E144" si="18">B135+C135/60+D135/3600</f>
         <v>30.370969444444444</v>
       </c>
       <c r="F135" s="1">
@@ -4641,7 +4652,7 @@
         <v>31.54</v>
       </c>
       <c r="I135">
-        <f t="shared" ref="I133:I144" si="17">-F135-G135/60-H135/3600</f>
+        <f t="shared" ref="I135:I144" si="19">-F135-G135/60-H135/3600</f>
         <v>-91.625427777777773</v>
       </c>
     </row>
@@ -4659,7 +4670,7 @@
         <v>24.01</v>
       </c>
       <c r="E136" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.406669444444443</v>
       </c>
       <c r="F136" s="1">
@@ -4672,7 +4683,7 @@
         <v>31.88</v>
       </c>
       <c r="I136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-91.692188888888893</v>
       </c>
     </row>
@@ -4690,7 +4701,7 @@
         <v>32.6</v>
       </c>
       <c r="E137" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.309055555555556</v>
       </c>
       <c r="F137" s="1">
@@ -4703,7 +4714,7 @@
         <v>17.2</v>
       </c>
       <c r="I137">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-91.771444444444441</v>
       </c>
     </row>
@@ -4721,7 +4732,7 @@
         <v>5.4</v>
       </c>
       <c r="E138" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.334833333333332</v>
       </c>
       <c r="F138" s="1">
@@ -4734,7 +4745,7 @@
         <v>39.6</v>
       </c>
       <c r="I138">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-90.044333333333327</v>
       </c>
     </row>
@@ -4752,7 +4763,7 @@
         <v>44.04</v>
       </c>
       <c r="E139" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.378900000000002</v>
       </c>
       <c r="F139" s="1">
@@ -4765,7 +4776,7 @@
         <v>39.491999999999997</v>
       </c>
       <c r="I139">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-90.160970000000006</v>
       </c>
     </row>
@@ -4783,7 +4794,7 @@
         <v>15.504</v>
       </c>
       <c r="E140" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.33764</v>
       </c>
       <c r="F140" s="1">
@@ -4796,7 +4807,7 @@
         <v>14.939</v>
       </c>
       <c r="I140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-90.004149722222223</v>
       </c>
     </row>
@@ -4814,7 +4825,7 @@
         <v>5.7960000000000003</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.30161</v>
       </c>
       <c r="F141" s="1">
@@ -4827,7 +4838,7 @@
         <v>53.146999999999998</v>
       </c>
       <c r="I141">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-89.831429722222225</v>
       </c>
     </row>
@@ -4845,7 +4856,7 @@
         <v>56.195999999999998</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.165609999999997</v>
       </c>
       <c r="F142" s="1">
@@ -4858,7 +4869,7 @@
         <v>14.712</v>
       </c>
       <c r="I142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-89.73742</v>
       </c>
     </row>
@@ -4876,7 +4887,7 @@
         <v>20.364000000000001</v>
       </c>
       <c r="E143" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.488990000000001</v>
       </c>
       <c r="F143" s="1">
@@ -4889,7 +4900,7 @@
         <v>41.064</v>
       </c>
       <c r="I143">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-90.094740000000002</v>
       </c>
     </row>
@@ -4907,7 +4918,7 @@
         <v>23.3</v>
       </c>
       <c r="E144" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.539805555555557</v>
       </c>
       <c r="F144" s="1">
@@ -4920,7 +4931,7 @@
         <v>28.2</v>
       </c>
       <c r="I144">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-89.874499999999998</v>
       </c>
     </row>
@@ -5957,9 +5968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A34F3-001A-814F-9795-6302158BAD39}">
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7150,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12947,6 +12958,51 @@
       <c r="D120">
         <v>-93.512332999999998</v>
       </c>
+      <c r="E120" s="9">
+        <v>5</v>
+      </c>
+      <c r="F120" s="9">
+        <v>0</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0</v>
+      </c>
+      <c r="H120" s="9">
+        <v>0</v>
+      </c>
+      <c r="I120" s="9">
+        <v>0</v>
+      </c>
+      <c r="J120" s="9">
+        <v>0</v>
+      </c>
+      <c r="K120" s="9">
+        <v>0</v>
+      </c>
+      <c r="L120" s="16">
+        <v>2</v>
+      </c>
+      <c r="M120" s="9">
+        <v>0</v>
+      </c>
+      <c r="N120" s="9">
+        <v>0</v>
+      </c>
+      <c r="O120" s="9">
+        <v>0</v>
+      </c>
+      <c r="P120" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="9">
+        <v>0</v>
+      </c>
+      <c r="R120" s="9">
+        <v>0</v>
+      </c>
+      <c r="S120" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
@@ -12961,6 +13017,51 @@
       <c r="D121">
         <v>-93.741</v>
       </c>
+      <c r="E121" s="9">
+        <v>0</v>
+      </c>
+      <c r="F121" s="9">
+        <v>0</v>
+      </c>
+      <c r="G121" s="9">
+        <v>0</v>
+      </c>
+      <c r="H121" s="9">
+        <v>0</v>
+      </c>
+      <c r="I121" s="9">
+        <v>0</v>
+      </c>
+      <c r="J121" s="9">
+        <v>0</v>
+      </c>
+      <c r="K121" s="9">
+        <v>0</v>
+      </c>
+      <c r="L121" s="9">
+        <v>0</v>
+      </c>
+      <c r="M121" s="9">
+        <v>0</v>
+      </c>
+      <c r="N121" s="9">
+        <v>0</v>
+      </c>
+      <c r="O121" s="9">
+        <v>0</v>
+      </c>
+      <c r="P121" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="9">
+        <v>0</v>
+      </c>
+      <c r="R121" s="9">
+        <v>0</v>
+      </c>
+      <c r="S121" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
@@ -12975,6 +13076,48 @@
       <c r="D122">
         <v>-93.850389000000007</v>
       </c>
+      <c r="E122" s="9">
+        <v>0</v>
+      </c>
+      <c r="F122" s="9">
+        <v>0</v>
+      </c>
+      <c r="G122" s="9">
+        <v>0</v>
+      </c>
+      <c r="H122" s="9">
+        <v>0</v>
+      </c>
+      <c r="I122" s="9">
+        <v>0</v>
+      </c>
+      <c r="J122" s="9">
+        <v>0</v>
+      </c>
+      <c r="K122" s="9">
+        <v>0</v>
+      </c>
+      <c r="L122" s="16">
+        <v>6</v>
+      </c>
+      <c r="M122" s="9">
+        <v>0</v>
+      </c>
+      <c r="N122" s="9">
+        <v>0</v>
+      </c>
+      <c r="O122" s="9">
+        <v>0</v>
+      </c>
+      <c r="P122" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="9">
+        <v>0</v>
+      </c>
+      <c r="R122" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
@@ -12989,6 +13132,51 @@
       <c r="D123">
         <v>-92.641889000000006</v>
       </c>
+      <c r="E123" s="9">
+        <v>0</v>
+      </c>
+      <c r="F123" s="9">
+        <v>0</v>
+      </c>
+      <c r="G123" s="9">
+        <v>0</v>
+      </c>
+      <c r="H123" s="9">
+        <v>0</v>
+      </c>
+      <c r="I123" s="9">
+        <v>0</v>
+      </c>
+      <c r="J123" s="9">
+        <v>0</v>
+      </c>
+      <c r="K123" s="9">
+        <v>0</v>
+      </c>
+      <c r="L123" s="9">
+        <v>0</v>
+      </c>
+      <c r="M123" s="9">
+        <v>0</v>
+      </c>
+      <c r="N123" s="9">
+        <v>0</v>
+      </c>
+      <c r="O123" s="9">
+        <v>0</v>
+      </c>
+      <c r="P123" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="9">
+        <v>0</v>
+      </c>
+      <c r="R123" s="9">
+        <v>0</v>
+      </c>
+      <c r="S123" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
@@ -13003,6 +13191,51 @@
       <c r="D124">
         <v>-92.649861000000001</v>
       </c>
+      <c r="E124" s="9">
+        <v>0</v>
+      </c>
+      <c r="F124" s="9">
+        <v>0</v>
+      </c>
+      <c r="G124" s="9">
+        <v>0</v>
+      </c>
+      <c r="H124" s="9">
+        <v>0</v>
+      </c>
+      <c r="I124" s="9">
+        <v>0</v>
+      </c>
+      <c r="J124" s="9">
+        <v>0</v>
+      </c>
+      <c r="K124" s="9">
+        <v>0</v>
+      </c>
+      <c r="L124" s="9">
+        <v>0</v>
+      </c>
+      <c r="M124" s="9">
+        <v>0</v>
+      </c>
+      <c r="N124" s="9">
+        <v>0</v>
+      </c>
+      <c r="O124" s="9">
+        <v>0</v>
+      </c>
+      <c r="P124" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="9">
+        <v>0</v>
+      </c>
+      <c r="R124" s="9">
+        <v>0</v>
+      </c>
+      <c r="S124" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
@@ -13017,6 +13250,51 @@
       <c r="D125">
         <v>-92.575610999999995</v>
       </c>
+      <c r="E125" s="9">
+        <v>0</v>
+      </c>
+      <c r="F125" s="9">
+        <v>0</v>
+      </c>
+      <c r="G125" s="16">
+        <v>2</v>
+      </c>
+      <c r="H125" s="9">
+        <v>0</v>
+      </c>
+      <c r="I125" s="9">
+        <v>0</v>
+      </c>
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9">
+        <v>0</v>
+      </c>
+      <c r="O125" s="9">
+        <v>0</v>
+      </c>
+      <c r="P125" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="9">
+        <v>0</v>
+      </c>
+      <c r="R125" s="9">
+        <v>0</v>
+      </c>
+      <c r="S125" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
@@ -13031,6 +13309,51 @@
       <c r="D126">
         <v>-92.490806000000006</v>
       </c>
+      <c r="E126" s="9">
+        <v>0</v>
+      </c>
+      <c r="F126" s="16">
+        <v>1</v>
+      </c>
+      <c r="G126" s="16">
+        <v>3</v>
+      </c>
+      <c r="H126" s="9">
+        <v>0</v>
+      </c>
+      <c r="I126" s="9">
+        <v>0</v>
+      </c>
+      <c r="J126" s="9">
+        <v>0</v>
+      </c>
+      <c r="K126" s="9">
+        <v>0</v>
+      </c>
+      <c r="L126" s="16">
+        <v>8</v>
+      </c>
+      <c r="M126" s="9">
+        <v>0</v>
+      </c>
+      <c r="N126" s="9">
+        <v>0</v>
+      </c>
+      <c r="O126" s="16">
+        <v>1</v>
+      </c>
+      <c r="P126" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="9">
+        <v>0</v>
+      </c>
+      <c r="R126" s="9">
+        <v>0</v>
+      </c>
+      <c r="S126" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
@@ -13045,6 +13368,51 @@
       <c r="D127">
         <v>-91.766943999999995</v>
       </c>
+      <c r="E127" s="16">
+        <v>3</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0</v>
+      </c>
+      <c r="G127" s="9">
+        <v>0</v>
+      </c>
+      <c r="H127" s="9">
+        <v>0</v>
+      </c>
+      <c r="I127" s="9">
+        <v>0</v>
+      </c>
+      <c r="J127" s="9">
+        <v>0</v>
+      </c>
+      <c r="K127" s="9">
+        <v>0</v>
+      </c>
+      <c r="L127" s="16">
+        <v>2</v>
+      </c>
+      <c r="M127" s="9">
+        <v>0</v>
+      </c>
+      <c r="N127" s="9">
+        <v>0</v>
+      </c>
+      <c r="O127" s="9">
+        <v>0</v>
+      </c>
+      <c r="P127" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="9">
+        <v>0</v>
+      </c>
+      <c r="R127" s="9">
+        <v>0</v>
+      </c>
+      <c r="S127" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
@@ -13059,8 +13427,53 @@
       <c r="D128">
         <v>-91.192222000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="9">
+        <v>0</v>
+      </c>
+      <c r="F128" s="9">
+        <v>0</v>
+      </c>
+      <c r="G128" s="9">
+        <v>0</v>
+      </c>
+      <c r="H128" s="9">
+        <v>0</v>
+      </c>
+      <c r="I128" s="9">
+        <v>0</v>
+      </c>
+      <c r="J128" s="9">
+        <v>0</v>
+      </c>
+      <c r="K128" s="9">
+        <v>0</v>
+      </c>
+      <c r="L128" s="16">
+        <v>2</v>
+      </c>
+      <c r="M128" s="9">
+        <v>0</v>
+      </c>
+      <c r="N128" s="9">
+        <v>0</v>
+      </c>
+      <c r="O128" s="9">
+        <v>0</v>
+      </c>
+      <c r="P128" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="9">
+        <v>0</v>
+      </c>
+      <c r="R128" s="9">
+        <v>0</v>
+      </c>
+      <c r="S128" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -13073,8 +13486,53 @@
       <c r="D129">
         <v>-91.834778</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+      <c r="F129" s="9">
+        <v>0</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <v>0</v>
+      </c>
+      <c r="I129" s="9">
+        <v>0</v>
+      </c>
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9">
+        <v>0</v>
+      </c>
+      <c r="L129" s="16">
+        <v>8</v>
+      </c>
+      <c r="M129" s="9">
+        <v>0</v>
+      </c>
+      <c r="N129" s="9">
+        <v>0</v>
+      </c>
+      <c r="O129" s="9">
+        <v>0</v>
+      </c>
+      <c r="P129" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="9">
+        <v>0</v>
+      </c>
+      <c r="R129" s="9">
+        <v>0</v>
+      </c>
+      <c r="S129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -13087,12 +13545,57 @@
       <c r="D130">
         <v>-92.024805999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="9">
+        <v>0</v>
+      </c>
+      <c r="F130" s="9">
+        <v>0</v>
+      </c>
+      <c r="G130" s="9">
+        <v>0</v>
+      </c>
+      <c r="H130" s="9">
+        <v>0</v>
+      </c>
+      <c r="I130" s="9">
+        <v>0</v>
+      </c>
+      <c r="J130" s="9">
+        <v>0</v>
+      </c>
+      <c r="K130" s="9">
+        <v>0</v>
+      </c>
+      <c r="L130" s="9">
+        <v>0</v>
+      </c>
+      <c r="M130" s="9">
+        <v>0</v>
+      </c>
+      <c r="N130" s="9">
+        <v>0</v>
+      </c>
+      <c r="O130" s="9">
+        <v>0</v>
+      </c>
+      <c r="P130" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="9">
+        <v>0</v>
+      </c>
+      <c r="R130" s="9">
+        <v>0</v>
+      </c>
+      <c r="S130" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C131">
@@ -13101,8 +13604,53 @@
       <c r="D131">
         <v>-92.023250000000004</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="9">
+        <v>0</v>
+      </c>
+      <c r="F131" s="9">
+        <v>0</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0</v>
+      </c>
+      <c r="H131" s="9">
+        <v>0</v>
+      </c>
+      <c r="I131" s="9">
+        <v>0</v>
+      </c>
+      <c r="J131" s="9">
+        <v>0</v>
+      </c>
+      <c r="K131" s="9">
+        <v>0</v>
+      </c>
+      <c r="L131" s="16">
+        <v>1</v>
+      </c>
+      <c r="M131" s="9">
+        <v>0</v>
+      </c>
+      <c r="N131" s="9">
+        <v>0</v>
+      </c>
+      <c r="O131" s="9">
+        <v>0</v>
+      </c>
+      <c r="P131" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="9">
+        <v>0</v>
+      </c>
+      <c r="R131" s="9">
+        <v>0</v>
+      </c>
+      <c r="S131" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>129</v>
       </c>
@@ -13115,8 +13663,53 @@
       <c r="D132">
         <v>-92.156917000000007</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="9">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9">
+        <v>0</v>
+      </c>
+      <c r="G132" s="16">
+        <v>7</v>
+      </c>
+      <c r="H132" s="9">
+        <v>0</v>
+      </c>
+      <c r="I132" s="9">
+        <v>0</v>
+      </c>
+      <c r="J132" s="9">
+        <v>0</v>
+      </c>
+      <c r="K132" s="9">
+        <v>0</v>
+      </c>
+      <c r="L132" s="14">
+        <v>0</v>
+      </c>
+      <c r="M132" s="9">
+        <v>0</v>
+      </c>
+      <c r="N132" s="9">
+        <v>0</v>
+      </c>
+      <c r="O132" s="16">
+        <v>1</v>
+      </c>
+      <c r="P132" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="9">
+        <v>0</v>
+      </c>
+      <c r="R132" s="9">
+        <v>0</v>
+      </c>
+      <c r="S132" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
@@ -13129,8 +13722,53 @@
       <c r="D133">
         <v>-91.625427999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="9">
+        <v>0</v>
+      </c>
+      <c r="F133" s="9">
+        <v>0</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0</v>
+      </c>
+      <c r="H133" s="9">
+        <v>0</v>
+      </c>
+      <c r="I133" s="9">
+        <v>0</v>
+      </c>
+      <c r="J133" s="9">
+        <v>0</v>
+      </c>
+      <c r="K133" s="9">
+        <v>0</v>
+      </c>
+      <c r="L133" s="9">
+        <v>0</v>
+      </c>
+      <c r="M133" s="9">
+        <v>0</v>
+      </c>
+      <c r="N133" s="9">
+        <v>0</v>
+      </c>
+      <c r="O133" s="9">
+        <v>0</v>
+      </c>
+      <c r="P133" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="9">
+        <v>0</v>
+      </c>
+      <c r="R133" s="9">
+        <v>0</v>
+      </c>
+      <c r="S133" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>131</v>
       </c>
@@ -13143,8 +13781,53 @@
       <c r="D134">
         <v>-91.692188999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="16">
+        <v>1</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0</v>
+      </c>
+      <c r="H134" s="9">
+        <v>0</v>
+      </c>
+      <c r="I134" s="9">
+        <v>0</v>
+      </c>
+      <c r="J134" s="9">
+        <v>0</v>
+      </c>
+      <c r="K134" s="9">
+        <v>0</v>
+      </c>
+      <c r="L134" s="9">
+        <v>0</v>
+      </c>
+      <c r="M134" s="9">
+        <v>0</v>
+      </c>
+      <c r="N134" s="9">
+        <v>0</v>
+      </c>
+      <c r="O134" s="9">
+        <v>0</v>
+      </c>
+      <c r="P134" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="9">
+        <v>0</v>
+      </c>
+      <c r="R134" s="9">
+        <v>0</v>
+      </c>
+      <c r="S134" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>132</v>
       </c>
@@ -13157,8 +13840,54 @@
       <c r="D135">
         <v>-91.771444000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="16">
+        <v>9</v>
+      </c>
+      <c r="F135" s="18">
+        <v>0</v>
+      </c>
+      <c r="G135" s="18">
+        <v>0</v>
+      </c>
+      <c r="H135" s="18">
+        <v>0</v>
+      </c>
+      <c r="I135" s="18">
+        <v>0</v>
+      </c>
+      <c r="J135" s="18">
+        <v>0</v>
+      </c>
+      <c r="K135" s="18">
+        <v>0</v>
+      </c>
+      <c r="L135" s="18">
+        <v>0</v>
+      </c>
+      <c r="M135" s="18">
+        <v>0</v>
+      </c>
+      <c r="N135" s="18">
+        <v>0</v>
+      </c>
+      <c r="O135" s="18">
+        <v>0</v>
+      </c>
+      <c r="P135" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="18">
+        <v>0</v>
+      </c>
+      <c r="R135" s="18">
+        <v>0</v>
+      </c>
+      <c r="S135" s="18">
+        <v>0</v>
+      </c>
+      <c r="T135" s="18"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>133</v>
       </c>
@@ -13171,8 +13900,53 @@
       <c r="D136">
         <v>-90.044332999999995</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="18">
+        <v>0</v>
+      </c>
+      <c r="F136" s="18">
+        <v>0</v>
+      </c>
+      <c r="G136" s="19">
+        <v>5</v>
+      </c>
+      <c r="H136" s="18">
+        <v>0</v>
+      </c>
+      <c r="I136" s="18">
+        <v>0</v>
+      </c>
+      <c r="J136" s="18">
+        <v>0</v>
+      </c>
+      <c r="K136" s="18">
+        <v>0</v>
+      </c>
+      <c r="L136" s="18">
+        <v>0</v>
+      </c>
+      <c r="M136" s="18">
+        <v>0</v>
+      </c>
+      <c r="N136" s="18">
+        <v>0</v>
+      </c>
+      <c r="O136" s="18">
+        <v>0</v>
+      </c>
+      <c r="P136" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="18">
+        <v>0</v>
+      </c>
+      <c r="R136" s="18">
+        <v>0</v>
+      </c>
+      <c r="S136" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>134</v>
       </c>
@@ -13185,8 +13959,53 @@
       <c r="D137">
         <v>-90.160970000000006</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="18">
+        <v>0</v>
+      </c>
+      <c r="F137" s="18">
+        <v>0</v>
+      </c>
+      <c r="G137" s="19">
+        <v>7</v>
+      </c>
+      <c r="H137" s="18">
+        <v>0</v>
+      </c>
+      <c r="I137" s="18">
+        <v>0</v>
+      </c>
+      <c r="J137" s="18">
+        <v>0</v>
+      </c>
+      <c r="K137" s="18">
+        <v>0</v>
+      </c>
+      <c r="L137" s="18">
+        <v>0</v>
+      </c>
+      <c r="M137" s="18">
+        <v>0</v>
+      </c>
+      <c r="N137" s="18">
+        <v>0</v>
+      </c>
+      <c r="O137" s="18">
+        <v>0</v>
+      </c>
+      <c r="P137" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="18">
+        <v>0</v>
+      </c>
+      <c r="R137" s="18">
+        <v>0</v>
+      </c>
+      <c r="S137" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>135</v>
       </c>
@@ -13199,8 +14018,53 @@
       <c r="D138">
         <v>-90.004149999999996</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="9">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9">
+        <v>0</v>
+      </c>
+      <c r="G138" s="9">
+        <v>0</v>
+      </c>
+      <c r="H138" s="9">
+        <v>0</v>
+      </c>
+      <c r="I138" s="9">
+        <v>0</v>
+      </c>
+      <c r="J138" s="9">
+        <v>0</v>
+      </c>
+      <c r="K138" s="9">
+        <v>0</v>
+      </c>
+      <c r="L138" s="9">
+        <v>0</v>
+      </c>
+      <c r="M138" s="9">
+        <v>0</v>
+      </c>
+      <c r="N138" s="9">
+        <v>0</v>
+      </c>
+      <c r="O138" s="9">
+        <v>0</v>
+      </c>
+      <c r="P138" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="9">
+        <v>0</v>
+      </c>
+      <c r="R138" s="9">
+        <v>0</v>
+      </c>
+      <c r="S138" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>136</v>
       </c>
@@ -13213,8 +14077,53 @@
       <c r="D139">
         <v>-89.831429999999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="9">
+        <v>0</v>
+      </c>
+      <c r="F139" s="9">
+        <v>0</v>
+      </c>
+      <c r="G139" s="9">
+        <v>0</v>
+      </c>
+      <c r="H139" s="9">
+        <v>0</v>
+      </c>
+      <c r="I139" s="9">
+        <v>0</v>
+      </c>
+      <c r="J139" s="9">
+        <v>0</v>
+      </c>
+      <c r="K139" s="9">
+        <v>0</v>
+      </c>
+      <c r="L139" s="9">
+        <v>0</v>
+      </c>
+      <c r="M139" s="9">
+        <v>0</v>
+      </c>
+      <c r="N139" s="9">
+        <v>0</v>
+      </c>
+      <c r="O139" s="9">
+        <v>0</v>
+      </c>
+      <c r="P139" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="9">
+        <v>0</v>
+      </c>
+      <c r="R139" s="9">
+        <v>0</v>
+      </c>
+      <c r="S139" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
@@ -13227,8 +14136,53 @@
       <c r="D140">
         <v>-89.73742</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
+        <v>0</v>
+      </c>
+      <c r="G140" s="9">
+        <v>0</v>
+      </c>
+      <c r="H140" s="9">
+        <v>0</v>
+      </c>
+      <c r="I140" s="9">
+        <v>0</v>
+      </c>
+      <c r="J140" s="9">
+        <v>0</v>
+      </c>
+      <c r="K140" s="9">
+        <v>0</v>
+      </c>
+      <c r="L140" s="9">
+        <v>0</v>
+      </c>
+      <c r="M140" s="9">
+        <v>0</v>
+      </c>
+      <c r="N140" s="9">
+        <v>0</v>
+      </c>
+      <c r="O140" s="9">
+        <v>0</v>
+      </c>
+      <c r="P140" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="9">
+        <v>0</v>
+      </c>
+      <c r="R140" s="9">
+        <v>0</v>
+      </c>
+      <c r="S140" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>138</v>
       </c>
@@ -13241,8 +14195,53 @@
       <c r="D141">
         <v>-90.094740000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="9">
+        <v>0</v>
+      </c>
+      <c r="F141" s="9">
+        <v>0</v>
+      </c>
+      <c r="G141" s="9">
+        <v>0</v>
+      </c>
+      <c r="H141" s="9">
+        <v>0</v>
+      </c>
+      <c r="I141" s="9">
+        <v>0</v>
+      </c>
+      <c r="J141" s="9">
+        <v>0</v>
+      </c>
+      <c r="K141" s="9">
+        <v>0</v>
+      </c>
+      <c r="L141" s="9">
+        <v>0</v>
+      </c>
+      <c r="M141" s="9">
+        <v>0</v>
+      </c>
+      <c r="N141" s="9">
+        <v>0</v>
+      </c>
+      <c r="O141" s="9">
+        <v>0</v>
+      </c>
+      <c r="P141" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="9">
+        <v>0</v>
+      </c>
+      <c r="R141" s="9">
+        <v>0</v>
+      </c>
+      <c r="S141" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>139</v>
       </c>
@@ -13255,8 +14254,112 @@
       <c r="D142">
         <v>-89.874499999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="18">
+        <v>0</v>
+      </c>
+      <c r="F142" s="18">
+        <v>0</v>
+      </c>
+      <c r="G142" s="18">
+        <v>0</v>
+      </c>
+      <c r="H142" s="18">
+        <v>0</v>
+      </c>
+      <c r="I142" s="18">
+        <v>0</v>
+      </c>
+      <c r="J142" s="18">
+        <v>0</v>
+      </c>
+      <c r="K142" s="19">
+        <v>5</v>
+      </c>
+      <c r="L142" s="18">
+        <v>0</v>
+      </c>
+      <c r="M142" s="18">
+        <v>0</v>
+      </c>
+      <c r="N142" s="18">
+        <v>0</v>
+      </c>
+      <c r="O142" s="18">
+        <v>0</v>
+      </c>
+      <c r="P142" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="18">
+        <v>0</v>
+      </c>
+      <c r="R142" s="18">
+        <v>0</v>
+      </c>
+      <c r="S142" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>30.869166400000001</v>
+      </c>
+      <c r="D143">
+        <v>-91.303483888888806</v>
+      </c>
+      <c r="E143" s="9">
+        <v>0</v>
+      </c>
+      <c r="F143" s="9">
+        <v>0</v>
+      </c>
+      <c r="G143" s="9">
+        <v>0</v>
+      </c>
+      <c r="H143" s="9">
+        <v>0</v>
+      </c>
+      <c r="I143" s="9">
+        <v>0</v>
+      </c>
+      <c r="J143" s="9">
+        <v>0</v>
+      </c>
+      <c r="K143" s="9">
+        <v>0</v>
+      </c>
+      <c r="L143" s="9">
+        <v>0</v>
+      </c>
+      <c r="M143" s="9">
+        <v>0</v>
+      </c>
+      <c r="N143" s="9">
+        <v>0</v>
+      </c>
+      <c r="O143" s="9">
+        <v>0</v>
+      </c>
+      <c r="P143" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="9">
+        <v>0</v>
+      </c>
+      <c r="R143" s="9">
+        <v>0</v>
+      </c>
+      <c r="S143" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D144" s="4"/>
     </row>
   </sheetData>

--- a/map_data_files/GPS Coordinates - Sites and Species.xlsx
+++ b/map_data_files/GPS Coordinates - Sites and Species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhimehrotra/Desktop/spongehunters/map_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92975D0-C59F-7F41-B4B1-EA37CF55D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A57B5B-BCDD-F342-A765-F91312CBE15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate GPS Coordinates" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="27">
   <si>
     <t>Long</t>
   </si>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -208,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
@@ -257,6 +264,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AA6257-4E63-BE4C-BA67-DCDA03B0201E}">
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4639,7 +4648,7 @@
         <v>15.49</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" ref="E135:E144" si="18">B135+C135/60+D135/3600</f>
+        <f t="shared" ref="E135:E176" si="18">B135+C135/60+D135/3600</f>
         <v>30.370969444444444</v>
       </c>
       <c r="F135" s="1">
@@ -4652,7 +4661,7 @@
         <v>31.54</v>
       </c>
       <c r="I135">
-        <f t="shared" ref="I135:I144" si="19">-F135-G135/60-H135/3600</f>
+        <f t="shared" ref="I135:I176" si="19">-F135-G135/60-H135/3600</f>
         <v>-91.625427777777773</v>
       </c>
     </row>
@@ -4933,6 +4942,998 @@
       <c r="I144">
         <f t="shared" si="19"/>
         <v>-89.874499999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>140</v>
+      </c>
+      <c r="B145" s="1">
+        <v>31</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>18.754999999999999</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="18"/>
+        <v>31.071876388888889</v>
+      </c>
+      <c r="F145" s="1">
+        <v>91</v>
+      </c>
+      <c r="G145">
+        <v>30</v>
+      </c>
+      <c r="H145">
+        <v>40.435000000000002</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="19"/>
+        <v>-91.511231944444447</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>141</v>
+      </c>
+      <c r="B146" s="1">
+        <v>30</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="18"/>
+        <v>30.0215</v>
+      </c>
+      <c r="F146" s="1">
+        <v>90</v>
+      </c>
+      <c r="G146">
+        <v>9</v>
+      </c>
+      <c r="H146">
+        <v>11.3</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="19"/>
+        <v>-90.15313888888889</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>142</v>
+      </c>
+      <c r="B147" s="1">
+        <v>30</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>35.5</v>
+      </c>
+      <c r="E147" s="4">
+        <f t="shared" si="18"/>
+        <v>30.026527777777776</v>
+      </c>
+      <c r="F147" s="1">
+        <v>90</v>
+      </c>
+      <c r="G147">
+        <v>4</v>
+      </c>
+      <c r="H147">
+        <v>55.1</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="19"/>
+        <v>-90.08197222222222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>143</v>
+      </c>
+      <c r="B148" s="1">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E148" s="4">
+        <f t="shared" si="18"/>
+        <v>30.052833333333336</v>
+      </c>
+      <c r="F148" s="1">
+        <v>89</v>
+      </c>
+      <c r="G148">
+        <v>52</v>
+      </c>
+      <c r="H148">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="19"/>
+        <v>-89.875611111111098</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>144</v>
+      </c>
+      <c r="B149" s="1">
+        <v>30</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>55</v>
+      </c>
+      <c r="E149" s="4">
+        <f t="shared" si="18"/>
+        <v>30.06527777777778</v>
+      </c>
+      <c r="F149" s="1">
+        <v>89</v>
+      </c>
+      <c r="G149">
+        <v>48</v>
+      </c>
+      <c r="H149">
+        <v>23.5</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="19"/>
+        <v>-89.806527777777774</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>145</v>
+      </c>
+      <c r="B150" s="1">
+        <v>30</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E150" s="4">
+        <f t="shared" si="18"/>
+        <v>30.068944444444444</v>
+      </c>
+      <c r="F150" s="1">
+        <v>89</v>
+      </c>
+      <c r="G150">
+        <v>48</v>
+      </c>
+      <c r="H150">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="19"/>
+        <v>-89.802555555555557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>146</v>
+      </c>
+      <c r="B151" s="1">
+        <v>30</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>19.5</v>
+      </c>
+      <c r="E151" s="4">
+        <f t="shared" si="18"/>
+        <v>30.072083333333332</v>
+      </c>
+      <c r="F151" s="1">
+        <v>89</v>
+      </c>
+      <c r="G151">
+        <v>48</v>
+      </c>
+      <c r="H151">
+        <v>5.5</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="19"/>
+        <v>-89.801527777777778</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>147</v>
+      </c>
+      <c r="B152" s="1">
+        <v>31</v>
+      </c>
+      <c r="C152">
+        <v>45</v>
+      </c>
+      <c r="D152">
+        <v>17.96</v>
+      </c>
+      <c r="E152" s="4">
+        <f t="shared" si="18"/>
+        <v>31.754988888888889</v>
+      </c>
+      <c r="F152" s="1">
+        <v>92</v>
+      </c>
+      <c r="G152">
+        <v>58</v>
+      </c>
+      <c r="H152">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="19"/>
+        <v>-92.971277777777786</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>148</v>
+      </c>
+      <c r="B153" s="1">
+        <v>31</v>
+      </c>
+      <c r="C153">
+        <v>52</v>
+      </c>
+      <c r="D153">
+        <v>8.4</v>
+      </c>
+      <c r="E153" s="4">
+        <f t="shared" si="18"/>
+        <v>31.869</v>
+      </c>
+      <c r="F153" s="1">
+        <v>92</v>
+      </c>
+      <c r="G153">
+        <v>53</v>
+      </c>
+      <c r="H153">
+        <v>32.5</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="19"/>
+        <v>-92.892361111111114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>149</v>
+      </c>
+      <c r="B154" s="1">
+        <v>31</v>
+      </c>
+      <c r="C154">
+        <v>55</v>
+      </c>
+      <c r="D154">
+        <v>28.9</v>
+      </c>
+      <c r="E154" s="4">
+        <f t="shared" si="18"/>
+        <v>31.924694444444444</v>
+      </c>
+      <c r="F154" s="1">
+        <v>92</v>
+      </c>
+      <c r="G154">
+        <v>52</v>
+      </c>
+      <c r="H154">
+        <v>44.5</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="19"/>
+        <v>-92.879027777777765</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>150</v>
+      </c>
+      <c r="B155" s="1">
+        <v>31</v>
+      </c>
+      <c r="C155">
+        <v>54</v>
+      </c>
+      <c r="D155">
+        <v>53.6</v>
+      </c>
+      <c r="E155" s="4">
+        <f t="shared" si="18"/>
+        <v>31.914888888888889</v>
+      </c>
+      <c r="F155" s="1">
+        <v>92</v>
+      </c>
+      <c r="G155">
+        <v>52</v>
+      </c>
+      <c r="H155">
+        <v>23.7</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="19"/>
+        <v>-92.873249999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>151</v>
+      </c>
+      <c r="B156" s="1">
+        <v>31</v>
+      </c>
+      <c r="C156">
+        <v>59</v>
+      </c>
+      <c r="D156">
+        <v>51.7</v>
+      </c>
+      <c r="E156" s="4">
+        <f t="shared" si="18"/>
+        <v>31.997694444444445</v>
+      </c>
+      <c r="F156" s="1">
+        <v>92</v>
+      </c>
+      <c r="G156">
+        <v>53</v>
+      </c>
+      <c r="H156">
+        <v>47.1</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="19"/>
+        <v>-92.896416666666667</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>152</v>
+      </c>
+      <c r="B157" s="1">
+        <v>31</v>
+      </c>
+      <c r="C157">
+        <v>53</v>
+      </c>
+      <c r="D157">
+        <v>3.4</v>
+      </c>
+      <c r="E157" s="4">
+        <f t="shared" si="18"/>
+        <v>31.884277777777779</v>
+      </c>
+      <c r="F157" s="1">
+        <v>92</v>
+      </c>
+      <c r="G157">
+        <v>57</v>
+      </c>
+      <c r="H157">
+        <v>14</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="19"/>
+        <v>-92.953888888888898</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>153</v>
+      </c>
+      <c r="B158" s="1">
+        <v>31</v>
+      </c>
+      <c r="C158">
+        <v>51</v>
+      </c>
+      <c r="D158">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E158" s="4">
+        <f t="shared" si="18"/>
+        <v>31.859527777777778</v>
+      </c>
+      <c r="F158" s="1">
+        <v>92</v>
+      </c>
+      <c r="G158">
+        <v>57</v>
+      </c>
+      <c r="H158">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="19"/>
+        <v>-92.95952777777778</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>154</v>
+      </c>
+      <c r="B159" s="1">
+        <v>32</v>
+      </c>
+      <c r="C159">
+        <v>18</v>
+      </c>
+      <c r="D159">
+        <v>23</v>
+      </c>
+      <c r="E159" s="4">
+        <f t="shared" si="18"/>
+        <v>32.306388888888883</v>
+      </c>
+      <c r="F159" s="1">
+        <v>93</v>
+      </c>
+      <c r="G159">
+        <v>39</v>
+      </c>
+      <c r="H159">
+        <v>3.4</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="19"/>
+        <v>-93.650944444444448</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>155</v>
+      </c>
+      <c r="B160" s="1">
+        <v>32</v>
+      </c>
+      <c r="C160">
+        <v>19</v>
+      </c>
+      <c r="D160">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E160" s="4">
+        <f t="shared" si="18"/>
+        <v>32.325916666666672</v>
+      </c>
+      <c r="F160" s="1">
+        <v>93</v>
+      </c>
+      <c r="G160">
+        <v>43</v>
+      </c>
+      <c r="H160">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="19"/>
+        <v>-93.718027777777777</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>156</v>
+      </c>
+      <c r="B161" s="1">
+        <v>32</v>
+      </c>
+      <c r="C161">
+        <v>21</v>
+      </c>
+      <c r="D161">
+        <v>15.4</v>
+      </c>
+      <c r="E161" s="4">
+        <f t="shared" si="18"/>
+        <v>32.354277777777781</v>
+      </c>
+      <c r="F161" s="1">
+        <v>93</v>
+      </c>
+      <c r="G161">
+        <v>41</v>
+      </c>
+      <c r="H161">
+        <v>34</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="19"/>
+        <v>-93.692777777777778</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>157</v>
+      </c>
+      <c r="B162" s="1">
+        <v>32</v>
+      </c>
+      <c r="C162">
+        <v>21</v>
+      </c>
+      <c r="D162">
+        <v>19.7</v>
+      </c>
+      <c r="E162" s="4">
+        <f t="shared" si="18"/>
+        <v>32.355472222222225</v>
+      </c>
+      <c r="F162" s="1">
+        <v>93</v>
+      </c>
+      <c r="G162">
+        <v>45</v>
+      </c>
+      <c r="H162">
+        <v>58.3</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="19"/>
+        <v>-93.766194444444452</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>158</v>
+      </c>
+      <c r="B163" s="1">
+        <v>32</v>
+      </c>
+      <c r="C163">
+        <v>42</v>
+      </c>
+      <c r="D163">
+        <v>2.6</v>
+      </c>
+      <c r="E163" s="4">
+        <f t="shared" si="18"/>
+        <v>32.700722222222225</v>
+      </c>
+      <c r="F163" s="1">
+        <v>93</v>
+      </c>
+      <c r="G163">
+        <v>56</v>
+      </c>
+      <c r="H163">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="19"/>
+        <v>-93.943666666666672</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>159</v>
+      </c>
+      <c r="B164" s="1">
+        <v>32</v>
+      </c>
+      <c r="C164">
+        <v>53</v>
+      </c>
+      <c r="D164">
+        <v>5.3</v>
+      </c>
+      <c r="E164" s="4">
+        <f t="shared" si="18"/>
+        <v>32.884805555555552</v>
+      </c>
+      <c r="F164" s="1">
+        <v>93</v>
+      </c>
+      <c r="G164">
+        <v>53</v>
+      </c>
+      <c r="H164">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="19"/>
+        <v>-93.893250000000009</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>160</v>
+      </c>
+      <c r="B165" s="1">
+        <v>32</v>
+      </c>
+      <c r="C165">
+        <v>39</v>
+      </c>
+      <c r="D165">
+        <v>6.5</v>
+      </c>
+      <c r="E165" s="4">
+        <f t="shared" si="18"/>
+        <v>32.651805555555555</v>
+      </c>
+      <c r="F165" s="1">
+        <v>93</v>
+      </c>
+      <c r="G165">
+        <v>40</v>
+      </c>
+      <c r="H165">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="19"/>
+        <v>-93.667277777777784</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>161</v>
+      </c>
+      <c r="B166" s="1">
+        <v>32</v>
+      </c>
+      <c r="C166">
+        <v>35</v>
+      </c>
+      <c r="D166">
+        <v>0.7</v>
+      </c>
+      <c r="E166" s="4">
+        <f t="shared" si="18"/>
+        <v>32.583527777777782</v>
+      </c>
+      <c r="F166" s="1">
+        <v>92</v>
+      </c>
+      <c r="G166">
+        <v>4</v>
+      </c>
+      <c r="H166">
+        <v>14.9</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="19"/>
+        <v>-92.070805555555552</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>162</v>
+      </c>
+      <c r="B167" s="1">
+        <v>32</v>
+      </c>
+      <c r="C167">
+        <v>42</v>
+      </c>
+      <c r="D167">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E167" s="4">
+        <f t="shared" si="18"/>
+        <v>32.70227777777778</v>
+      </c>
+      <c r="F167" s="1">
+        <v>92</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>59.1</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="19"/>
+        <v>-92.016416666666672</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>163</v>
+      </c>
+      <c r="B168" s="1">
+        <v>32</v>
+      </c>
+      <c r="C168">
+        <v>33</v>
+      </c>
+      <c r="D168">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E168" s="4">
+        <f t="shared" si="18"/>
+        <v>32.558944444444442</v>
+      </c>
+      <c r="F168" s="1">
+        <v>91</v>
+      </c>
+      <c r="G168">
+        <v>45</v>
+      </c>
+      <c r="H168">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="19"/>
+        <v>-91.759638888888887</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>164</v>
+      </c>
+      <c r="B169" s="1">
+        <v>32</v>
+      </c>
+      <c r="C169">
+        <v>17</v>
+      </c>
+      <c r="D169">
+        <v>31.2</v>
+      </c>
+      <c r="E169" s="4">
+        <f t="shared" si="18"/>
+        <v>32.292000000000002</v>
+      </c>
+      <c r="F169" s="1">
+        <v>91</v>
+      </c>
+      <c r="G169">
+        <v>45</v>
+      </c>
+      <c r="H169">
+        <v>49.1</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="19"/>
+        <v>-91.763638888888892</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>165</v>
+      </c>
+      <c r="B170" s="1">
+        <v>32</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>44.7</v>
+      </c>
+      <c r="E170" s="4">
+        <f t="shared" si="18"/>
+        <v>32.179083333333331</v>
+      </c>
+      <c r="F170" s="1">
+        <v>91</v>
+      </c>
+      <c r="G170">
+        <v>58</v>
+      </c>
+      <c r="H170">
+        <v>35.9</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="19"/>
+        <v>-91.976638888888886</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>166</v>
+      </c>
+      <c r="B171" s="1">
+        <v>31</v>
+      </c>
+      <c r="C171">
+        <v>30</v>
+      </c>
+      <c r="D171">
+        <v>31.9</v>
+      </c>
+      <c r="E171" s="4">
+        <f t="shared" si="18"/>
+        <v>31.508861111111113</v>
+      </c>
+      <c r="F171" s="1">
+        <v>92</v>
+      </c>
+      <c r="G171">
+        <v>5</v>
+      </c>
+      <c r="H171">
+        <v>14.5</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="19"/>
+        <v>-92.087361111111107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>167</v>
+      </c>
+      <c r="B172" s="1">
+        <v>32</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172">
+        <v>32.4</v>
+      </c>
+      <c r="E172" s="4">
+        <f t="shared" si="18"/>
+        <v>32.19233333333333</v>
+      </c>
+      <c r="F172" s="1">
+        <v>91</v>
+      </c>
+      <c r="G172">
+        <v>57</v>
+      </c>
+      <c r="H172">
+        <v>24.8</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="19"/>
+        <v>-91.956888888888898</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>168</v>
+      </c>
+      <c r="B173" s="1">
+        <v>30</v>
+      </c>
+      <c r="C173">
+        <v>47</v>
+      </c>
+      <c r="D173">
+        <v>22.2</v>
+      </c>
+      <c r="E173" s="4">
+        <f t="shared" si="18"/>
+        <v>30.7895</v>
+      </c>
+      <c r="F173" s="1">
+        <v>90</v>
+      </c>
+      <c r="G173">
+        <v>41</v>
+      </c>
+      <c r="H173">
+        <v>55.7</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="19"/>
+        <v>-90.698805555555566</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>169</v>
+      </c>
+      <c r="B174" s="1">
+        <v>30</v>
+      </c>
+      <c r="C174">
+        <v>37</v>
+      </c>
+      <c r="D174">
+        <v>42.3</v>
+      </c>
+      <c r="E174" s="4">
+        <f t="shared" si="18"/>
+        <v>30.628416666666666</v>
+      </c>
+      <c r="F174" s="1">
+        <v>90</v>
+      </c>
+      <c r="G174">
+        <v>9</v>
+      </c>
+      <c r="H174">
+        <v>15.6</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="19"/>
+        <v>-90.154333333333341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>170</v>
+      </c>
+      <c r="B175" s="1">
+        <v>30</v>
+      </c>
+      <c r="C175">
+        <v>28</v>
+      </c>
+      <c r="D175">
+        <v>41.1</v>
+      </c>
+      <c r="E175" s="4">
+        <f t="shared" si="18"/>
+        <v>30.478083333333331</v>
+      </c>
+      <c r="F175" s="1">
+        <v>90</v>
+      </c>
+      <c r="G175">
+        <v>5</v>
+      </c>
+      <c r="H175">
+        <v>20.6</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="19"/>
+        <v>-90.089055555555547</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>171</v>
+      </c>
+      <c r="B176" s="1">
+        <v>30</v>
+      </c>
+      <c r="C176">
+        <v>29</v>
+      </c>
+      <c r="D176">
+        <v>39.1</v>
+      </c>
+      <c r="E176" s="4">
+        <f t="shared" si="18"/>
+        <v>30.494194444444446</v>
+      </c>
+      <c r="F176" s="1">
+        <v>90</v>
+      </c>
+      <c r="G176">
+        <v>10</v>
+      </c>
+      <c r="H176">
+        <v>11.4</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="19"/>
+        <v>-90.169833333333344</v>
       </c>
     </row>
   </sheetData>
@@ -4943,10 +5944,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D76825C-C293-7549-99D8-78EF98420F3C}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5503,6 +6504,90 @@
         <v>3</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>32.271749999999997</v>
+      </c>
+      <c r="C40">
+        <v>-93.512332999999998</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>119</v>
+      </c>
+      <c r="B41">
+        <v>32.491972199999999</v>
+      </c>
+      <c r="C41">
+        <v>-93.850389000000007</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>123</v>
+      </c>
+      <c r="B42">
+        <v>32.782611099999997</v>
+      </c>
+      <c r="C42">
+        <v>-92.490806000000006</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>124</v>
+      </c>
+      <c r="B43">
+        <v>31.9299167</v>
+      </c>
+      <c r="C43">
+        <v>-91.766943999999995</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>125</v>
+      </c>
+      <c r="B44">
+        <v>32.811833300000004</v>
+      </c>
+      <c r="C44">
+        <v>-91.192222000000001</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>126</v>
+      </c>
+      <c r="B45">
+        <v>31.6760278</v>
+      </c>
+      <c r="C45">
+        <v>-91.834778</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5510,10 +6595,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDF0D-3A19-D448-B6E0-DF89803F0E8E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5602,6 +6687,48 @@
         <v>-90.115638888888881</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>141</v>
+      </c>
+      <c r="B7">
+        <v>30.0215</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-90.15313888888889</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>142</v>
+      </c>
+      <c r="B8">
+        <v>30.026527777777776</v>
+      </c>
+      <c r="C8">
+        <v>-90.08197222222222</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>144</v>
+      </c>
+      <c r="B9">
+        <v>30.06527777777778</v>
+      </c>
+      <c r="C9">
+        <v>-89.806527777777774</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5711,10 +6838,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B2042A-905E-724E-B484-350369DB7603}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5775,6 +6902,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>32.782611099999997</v>
+      </c>
+      <c r="C5">
+        <v>-92.490806000000006</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>129</v>
+      </c>
+      <c r="B6">
+        <v>31.301138900000002</v>
+      </c>
+      <c r="C6">
+        <v>-92.156917000000007</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5782,10 +6937,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6000E8CD-7D19-7641-9D62-663F790AA58A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5843,6 +6998,20 @@
         <v>-90.115638888888881</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>142</v>
+      </c>
+      <c r="B5">
+        <v>30.026527777777776</v>
+      </c>
+      <c r="C5">
+        <v>-90.08197222222222</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5966,11 +7135,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A34F3-001A-814F-9795-6302158BAD39}">
-  <dimension ref="A1:U144"/>
+  <dimension ref="A1:U173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146:D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12945,21 +14114,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>32.271749999999997</v>
+      </c>
+      <c r="D119">
+        <v>-93.512332999999998</v>
+      </c>
+      <c r="E119" s="9">
+        <v>5</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0</v>
+      </c>
+      <c r="I119" s="9">
+        <v>0</v>
+      </c>
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="16">
+        <v>2</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+      <c r="O119" s="9">
+        <v>0</v>
+      </c>
+      <c r="P119" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="9">
+        <v>0</v>
+      </c>
+      <c r="R119" s="9">
+        <v>0</v>
+      </c>
+      <c r="S119" s="9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>32.271749999999997</v>
+        <v>32.336722219999999</v>
       </c>
       <c r="D120">
-        <v>-93.512332999999998</v>
+        <v>-93.741</v>
       </c>
       <c r="E120" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F120" s="9">
         <v>0</v>
@@ -12979,8 +14207,8 @@
       <c r="K120" s="9">
         <v>0</v>
       </c>
-      <c r="L120" s="16">
-        <v>2</v>
+      <c r="L120" s="9">
+        <v>0</v>
       </c>
       <c r="M120" s="9">
         <v>0</v>
@@ -13006,16 +14234,16 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>32.336722219999999</v>
+        <v>32.491972199999999</v>
       </c>
       <c r="D121">
-        <v>-93.741</v>
+        <v>-93.850389000000007</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
@@ -13038,8 +14266,8 @@
       <c r="K121" s="9">
         <v>0</v>
       </c>
-      <c r="L121" s="9">
-        <v>0</v>
+      <c r="L121" s="16">
+        <v>6</v>
       </c>
       <c r="M121" s="9">
         <v>0</v>
@@ -13057,24 +14285,21 @@
         <v>0</v>
       </c>
       <c r="R121" s="9">
-        <v>0</v>
-      </c>
-      <c r="S121" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>32.491972199999999</v>
+        <v>32.635750000000002</v>
       </c>
       <c r="D122">
-        <v>-93.850389000000007</v>
+        <v>-92.641889000000006</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
@@ -13097,8 +14322,8 @@
       <c r="K122" s="9">
         <v>0</v>
       </c>
-      <c r="L122" s="16">
-        <v>6</v>
+      <c r="L122" s="9">
+        <v>0</v>
       </c>
       <c r="M122" s="9">
         <v>0</v>
@@ -13116,21 +14341,24 @@
         <v>0</v>
       </c>
       <c r="R122" s="9">
+        <v>0</v>
+      </c>
+      <c r="S122" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123">
-        <v>32.635750000000002</v>
+        <v>32.680722199999998</v>
       </c>
       <c r="D123">
-        <v>-92.641889000000006</v>
+        <v>-92.649861000000001</v>
       </c>
       <c r="E123" s="9">
         <v>0</v>
@@ -13180,16 +14408,16 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>32.680722199999998</v>
+        <v>32.857472199999997</v>
       </c>
       <c r="D124">
-        <v>-92.649861000000001</v>
+        <v>-92.575610999999995</v>
       </c>
       <c r="E124" s="9">
         <v>0</v>
@@ -13197,8 +14425,8 @@
       <c r="F124" s="9">
         <v>0</v>
       </c>
-      <c r="G124" s="9">
-        <v>0</v>
+      <c r="G124" s="16">
+        <v>2</v>
       </c>
       <c r="H124" s="9">
         <v>0</v>
@@ -13239,25 +14467,25 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>32.857472199999997</v>
+        <v>32.782611099999997</v>
       </c>
       <c r="D125">
-        <v>-92.575610999999995</v>
+        <v>-92.490806000000006</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
       </c>
-      <c r="F125" s="9">
-        <v>0</v>
+      <c r="F125" s="16">
+        <v>1</v>
       </c>
       <c r="G125" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H125" s="9">
         <v>0</v>
@@ -13271,8 +14499,8 @@
       <c r="K125" s="9">
         <v>0</v>
       </c>
-      <c r="L125" s="9">
-        <v>0</v>
+      <c r="L125" s="16">
+        <v>8</v>
       </c>
       <c r="M125" s="9">
         <v>0</v>
@@ -13280,8 +14508,8 @@
       <c r="N125" s="9">
         <v>0</v>
       </c>
-      <c r="O125" s="9">
-        <v>0</v>
+      <c r="O125" s="16">
+        <v>1</v>
       </c>
       <c r="P125" s="9">
         <v>0</v>
@@ -13298,25 +14526,25 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>32.782611099999997</v>
+        <v>31.9299167</v>
       </c>
       <c r="D126">
-        <v>-92.490806000000006</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="16">
-        <v>1</v>
-      </c>
-      <c r="G126" s="16">
-        <v>3</v>
+        <v>-91.766943999999995</v>
+      </c>
+      <c r="E126" s="16">
+        <v>3</v>
+      </c>
+      <c r="F126" s="9">
+        <v>0</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0</v>
       </c>
       <c r="H126" s="9">
         <v>0</v>
@@ -13331,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M126" s="9">
         <v>0</v>
@@ -13339,8 +14567,8 @@
       <c r="N126" s="9">
         <v>0</v>
       </c>
-      <c r="O126" s="16">
-        <v>1</v>
+      <c r="O126" s="9">
+        <v>0</v>
       </c>
       <c r="P126" s="9">
         <v>0</v>
@@ -13357,19 +14585,19 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C127">
-        <v>31.9299167</v>
+        <v>32.811833300000004</v>
       </c>
       <c r="D127">
-        <v>-91.766943999999995</v>
-      </c>
-      <c r="E127" s="16">
-        <v>3</v>
+        <v>-91.192222000000001</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0</v>
       </c>
       <c r="F127" s="9">
         <v>0</v>
@@ -13416,16 +14644,16 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C128">
-        <v>32.811833300000004</v>
+        <v>31.6760278</v>
       </c>
       <c r="D128">
-        <v>-91.192222000000001</v>
+        <v>-91.834778</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
@@ -13449,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M128" s="9">
         <v>0</v>
@@ -13475,16 +14703,16 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>31.6760278</v>
+        <v>31.6095556</v>
       </c>
       <c r="D129">
-        <v>-91.834778</v>
+        <v>-92.024805999999998</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
@@ -13507,8 +14735,8 @@
       <c r="K129" s="9">
         <v>0</v>
       </c>
-      <c r="L129" s="16">
-        <v>8</v>
+      <c r="L129" s="9">
+        <v>0</v>
       </c>
       <c r="M129" s="9">
         <v>0</v>
@@ -13534,16 +14762,16 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>127</v>
-      </c>
-      <c r="B130" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C130">
-        <v>31.6095556</v>
+        <v>31.572880000000001</v>
       </c>
       <c r="D130">
-        <v>-92.024805999999998</v>
+        <v>-92.023250000000004</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
@@ -13566,8 +14794,8 @@
       <c r="K130" s="9">
         <v>0</v>
       </c>
-      <c r="L130" s="9">
-        <v>0</v>
+      <c r="L130" s="16">
+        <v>1</v>
       </c>
       <c r="M130" s="9">
         <v>0</v>
@@ -13593,16 +14821,16 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>128</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>4</v>
+        <v>129</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>31.572880000000001</v>
+        <v>31.301138900000002</v>
       </c>
       <c r="D131">
-        <v>-92.023250000000004</v>
+        <v>-92.156917000000007</v>
       </c>
       <c r="E131" s="9">
         <v>0</v>
@@ -13610,8 +14838,8 @@
       <c r="F131" s="9">
         <v>0</v>
       </c>
-      <c r="G131" s="9">
-        <v>0</v>
+      <c r="G131" s="16">
+        <v>7</v>
       </c>
       <c r="H131" s="9">
         <v>0</v>
@@ -13625,17 +14853,17 @@
       <c r="K131" s="9">
         <v>0</v>
       </c>
-      <c r="L131" s="16">
+      <c r="L131" s="14">
+        <v>0</v>
+      </c>
+      <c r="M131" s="9">
+        <v>0</v>
+      </c>
+      <c r="N131" s="9">
+        <v>0</v>
+      </c>
+      <c r="O131" s="16">
         <v>1</v>
-      </c>
-      <c r="M131" s="9">
-        <v>0</v>
-      </c>
-      <c r="N131" s="9">
-        <v>0</v>
-      </c>
-      <c r="O131" s="9">
-        <v>0</v>
       </c>
       <c r="P131" s="9">
         <v>0</v>
@@ -13652,16 +14880,16 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C132">
-        <v>31.301138900000002</v>
+        <v>30.3709694</v>
       </c>
       <c r="D132">
-        <v>-92.156917000000007</v>
+        <v>-91.625427999999999</v>
       </c>
       <c r="E132" s="9">
         <v>0</v>
@@ -13669,8 +14897,8 @@
       <c r="F132" s="9">
         <v>0</v>
       </c>
-      <c r="G132" s="16">
-        <v>7</v>
+      <c r="G132" s="9">
+        <v>0</v>
       </c>
       <c r="H132" s="9">
         <v>0</v>
@@ -13684,7 +14912,7 @@
       <c r="K132" s="9">
         <v>0</v>
       </c>
-      <c r="L132" s="14">
+      <c r="L132" s="9">
         <v>0</v>
       </c>
       <c r="M132" s="9">
@@ -13693,8 +14921,8 @@
       <c r="N132" s="9">
         <v>0</v>
       </c>
-      <c r="O132" s="16">
-        <v>1</v>
+      <c r="O132" s="9">
+        <v>0</v>
       </c>
       <c r="P132" s="9">
         <v>0</v>
@@ -13711,19 +14939,19 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>30.3709694</v>
+        <v>30.406669399999998</v>
       </c>
       <c r="D133">
-        <v>-91.625427999999999</v>
-      </c>
-      <c r="E133" s="9">
-        <v>0</v>
+        <v>-91.692188999999999</v>
+      </c>
+      <c r="E133" s="16">
+        <v>1</v>
       </c>
       <c r="F133" s="9">
         <v>0</v>
@@ -13770,84 +14998,85 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C134">
-        <v>30.406669399999998</v>
+        <v>30.309055600000001</v>
       </c>
       <c r="D134">
-        <v>-91.692188999999999</v>
+        <v>-91.771444000000002</v>
       </c>
       <c r="E134" s="16">
-        <v>1</v>
-      </c>
-      <c r="F134" s="9">
-        <v>0</v>
-      </c>
-      <c r="G134" s="9">
-        <v>0</v>
-      </c>
-      <c r="H134" s="9">
-        <v>0</v>
-      </c>
-      <c r="I134" s="9">
-        <v>0</v>
-      </c>
-      <c r="J134" s="9">
-        <v>0</v>
-      </c>
-      <c r="K134" s="9">
-        <v>0</v>
-      </c>
-      <c r="L134" s="9">
-        <v>0</v>
-      </c>
-      <c r="M134" s="9">
-        <v>0</v>
-      </c>
-      <c r="N134" s="9">
-        <v>0</v>
-      </c>
-      <c r="O134" s="9">
-        <v>0</v>
-      </c>
-      <c r="P134" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="9">
-        <v>0</v>
-      </c>
-      <c r="R134" s="9">
-        <v>0</v>
-      </c>
-      <c r="S134" s="9">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F134" s="18">
+        <v>0</v>
+      </c>
+      <c r="G134" s="18">
+        <v>0</v>
+      </c>
+      <c r="H134" s="18">
+        <v>0</v>
+      </c>
+      <c r="I134" s="18">
+        <v>0</v>
+      </c>
+      <c r="J134" s="18">
+        <v>0</v>
+      </c>
+      <c r="K134" s="18">
+        <v>0</v>
+      </c>
+      <c r="L134" s="18">
+        <v>0</v>
+      </c>
+      <c r="M134" s="18">
+        <v>0</v>
+      </c>
+      <c r="N134" s="18">
+        <v>0</v>
+      </c>
+      <c r="O134" s="18">
+        <v>0</v>
+      </c>
+      <c r="P134" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="18">
+        <v>0</v>
+      </c>
+      <c r="R134" s="18">
+        <v>0</v>
+      </c>
+      <c r="S134" s="18">
+        <v>0</v>
+      </c>
+      <c r="T134" s="18"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C135">
-        <v>30.309055600000001</v>
+        <v>30.3348333</v>
       </c>
       <c r="D135">
-        <v>-91.771444000000002</v>
-      </c>
-      <c r="E135" s="16">
-        <v>9</v>
+        <v>-90.044332999999995</v>
+      </c>
+      <c r="E135" s="18">
+        <v>0</v>
       </c>
       <c r="F135" s="18">
         <v>0</v>
       </c>
-      <c r="G135" s="18">
-        <v>0</v>
+      <c r="G135" s="19">
+        <v>5</v>
       </c>
       <c r="H135" s="18">
         <v>0</v>
@@ -13885,20 +15114,19 @@
       <c r="S135" s="18">
         <v>0</v>
       </c>
-      <c r="T135" s="18"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C136">
-        <v>30.3348333</v>
+        <v>30.378900000000002</v>
       </c>
       <c r="D136">
-        <v>-90.044332999999995</v>
+        <v>-90.160970000000006</v>
       </c>
       <c r="E136" s="18">
         <v>0</v>
@@ -13907,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H136" s="18">
         <v>0</v>
@@ -13948,75 +15176,75 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>30.378900000000002</v>
+        <v>30.33764</v>
       </c>
       <c r="D137">
-        <v>-90.160970000000006</v>
-      </c>
-      <c r="E137" s="18">
-        <v>0</v>
-      </c>
-      <c r="F137" s="18">
-        <v>0</v>
-      </c>
-      <c r="G137" s="19">
-        <v>7</v>
-      </c>
-      <c r="H137" s="18">
-        <v>0</v>
-      </c>
-      <c r="I137" s="18">
-        <v>0</v>
-      </c>
-      <c r="J137" s="18">
-        <v>0</v>
-      </c>
-      <c r="K137" s="18">
-        <v>0</v>
-      </c>
-      <c r="L137" s="18">
-        <v>0</v>
-      </c>
-      <c r="M137" s="18">
-        <v>0</v>
-      </c>
-      <c r="N137" s="18">
-        <v>0</v>
-      </c>
-      <c r="O137" s="18">
-        <v>0</v>
-      </c>
-      <c r="P137" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q137" s="18">
-        <v>0</v>
-      </c>
-      <c r="R137" s="18">
-        <v>0</v>
-      </c>
-      <c r="S137" s="18">
+        <v>-90.004149999999996</v>
+      </c>
+      <c r="E137" s="9">
+        <v>0</v>
+      </c>
+      <c r="F137" s="9">
+        <v>0</v>
+      </c>
+      <c r="G137" s="9">
+        <v>0</v>
+      </c>
+      <c r="H137" s="9">
+        <v>0</v>
+      </c>
+      <c r="I137" s="9">
+        <v>0</v>
+      </c>
+      <c r="J137" s="9">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
+        <v>0</v>
+      </c>
+      <c r="M137" s="9">
+        <v>0</v>
+      </c>
+      <c r="N137" s="9">
+        <v>0</v>
+      </c>
+      <c r="O137" s="9">
+        <v>0</v>
+      </c>
+      <c r="P137" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="9">
+        <v>0</v>
+      </c>
+      <c r="R137" s="9">
+        <v>0</v>
+      </c>
+      <c r="S137" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C138">
-        <v>30.33764</v>
+        <v>30.30161</v>
       </c>
       <c r="D138">
-        <v>-90.004149999999996</v>
+        <v>-89.831429999999997</v>
       </c>
       <c r="E138" s="9">
         <v>0</v>
@@ -14066,16 +15294,16 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C139">
-        <v>30.30161</v>
+        <v>30.165609999999997</v>
       </c>
       <c r="D139">
-        <v>-89.831429999999997</v>
+        <v>-89.73742</v>
       </c>
       <c r="E139" s="9">
         <v>0</v>
@@ -14125,16 +15353,16 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C140">
-        <v>30.165609999999997</v>
+        <v>30.488990000000001</v>
       </c>
       <c r="D140">
-        <v>-89.73742</v>
+        <v>-90.094740000000002</v>
       </c>
       <c r="E140" s="9">
         <v>0</v>
@@ -14184,183 +15412,825 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>30.488990000000001</v>
+        <v>30.539805555555557</v>
       </c>
       <c r="D141">
-        <v>-90.094740000000002</v>
-      </c>
-      <c r="E141" s="9">
-        <v>0</v>
-      </c>
-      <c r="F141" s="9">
-        <v>0</v>
-      </c>
-      <c r="G141" s="9">
-        <v>0</v>
-      </c>
-      <c r="H141" s="9">
-        <v>0</v>
-      </c>
-      <c r="I141" s="9">
-        <v>0</v>
-      </c>
-      <c r="J141" s="9">
-        <v>0</v>
-      </c>
-      <c r="K141" s="9">
-        <v>0</v>
-      </c>
-      <c r="L141" s="9">
-        <v>0</v>
-      </c>
-      <c r="M141" s="9">
-        <v>0</v>
-      </c>
-      <c r="N141" s="9">
-        <v>0</v>
-      </c>
-      <c r="O141" s="9">
-        <v>0</v>
-      </c>
-      <c r="P141" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q141" s="9">
-        <v>0</v>
-      </c>
-      <c r="R141" s="9">
-        <v>0</v>
-      </c>
-      <c r="S141" s="9">
+        <v>-89.874499999999998</v>
+      </c>
+      <c r="E141" s="18">
+        <v>0</v>
+      </c>
+      <c r="F141" s="18">
+        <v>0</v>
+      </c>
+      <c r="G141" s="18">
+        <v>0</v>
+      </c>
+      <c r="H141" s="18">
+        <v>0</v>
+      </c>
+      <c r="I141" s="18">
+        <v>0</v>
+      </c>
+      <c r="J141" s="18">
+        <v>0</v>
+      </c>
+      <c r="K141" s="19">
+        <v>5</v>
+      </c>
+      <c r="L141" s="18">
+        <v>0</v>
+      </c>
+      <c r="M141" s="18">
+        <v>0</v>
+      </c>
+      <c r="N141" s="18">
+        <v>0</v>
+      </c>
+      <c r="O141" s="18">
+        <v>0</v>
+      </c>
+      <c r="P141" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="18">
+        <v>0</v>
+      </c>
+      <c r="R141" s="18">
+        <v>0</v>
+      </c>
+      <c r="S141" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>30.539805555555557</v>
+        <v>31.071876388888889</v>
       </c>
       <c r="D142">
-        <v>-89.874499999999998</v>
-      </c>
-      <c r="E142" s="18">
-        <v>0</v>
-      </c>
-      <c r="F142" s="18">
-        <v>0</v>
-      </c>
-      <c r="G142" s="18">
-        <v>0</v>
-      </c>
-      <c r="H142" s="18">
-        <v>0</v>
-      </c>
-      <c r="I142" s="18">
-        <v>0</v>
-      </c>
-      <c r="J142" s="18">
-        <v>0</v>
-      </c>
-      <c r="K142" s="19">
-        <v>5</v>
-      </c>
-      <c r="L142" s="18">
-        <v>0</v>
-      </c>
-      <c r="M142" s="18">
-        <v>0</v>
-      </c>
-      <c r="N142" s="18">
-        <v>0</v>
-      </c>
-      <c r="O142" s="18">
-        <v>0</v>
-      </c>
-      <c r="P142" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="18">
-        <v>0</v>
-      </c>
-      <c r="R142" s="18">
-        <v>0</v>
-      </c>
-      <c r="S142" s="18">
+        <v>-91.511231944444447</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9">
+        <v>0</v>
+      </c>
+      <c r="G142" s="9">
+        <v>0</v>
+      </c>
+      <c r="H142" s="9">
+        <v>0</v>
+      </c>
+      <c r="I142" s="9">
+        <v>0</v>
+      </c>
+      <c r="J142" s="9">
+        <v>0</v>
+      </c>
+      <c r="K142" s="9">
+        <v>0</v>
+      </c>
+      <c r="L142" s="9">
+        <v>0</v>
+      </c>
+      <c r="M142" s="9">
+        <v>0</v>
+      </c>
+      <c r="N142" s="9">
+        <v>0</v>
+      </c>
+      <c r="O142" s="9">
+        <v>0</v>
+      </c>
+      <c r="P142" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="9">
+        <v>0</v>
+      </c>
+      <c r="R142" s="9">
+        <v>0</v>
+      </c>
+      <c r="S142" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>30.0215</v>
+      </c>
+      <c r="D143" s="4">
+        <v>-90.15313888888889</v>
+      </c>
+      <c r="E143" s="21">
+        <v>8</v>
+      </c>
+      <c r="F143" s="20">
+        <v>0</v>
+      </c>
+      <c r="G143" s="20">
+        <v>0</v>
+      </c>
+      <c r="H143" s="20">
+        <v>0</v>
+      </c>
+      <c r="I143" s="20">
+        <v>0</v>
+      </c>
+      <c r="J143" s="20">
+        <v>0</v>
+      </c>
+      <c r="K143" s="20">
+        <v>0</v>
+      </c>
+      <c r="L143" s="20">
+        <v>0</v>
+      </c>
+      <c r="M143" s="21">
+        <v>2</v>
+      </c>
+      <c r="N143" s="20">
+        <v>0</v>
+      </c>
+      <c r="O143" s="20">
+        <v>0</v>
+      </c>
+      <c r="P143" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="20">
+        <v>0</v>
+      </c>
+      <c r="R143" s="20">
+        <v>0</v>
+      </c>
+      <c r="S143" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>30.026527777777776</v>
+      </c>
+      <c r="D144">
+        <v>-90.08197222222222</v>
+      </c>
+      <c r="E144" s="20">
+        <v>0</v>
+      </c>
+      <c r="F144" s="20">
+        <v>0</v>
+      </c>
+      <c r="G144" s="20">
+        <v>0</v>
+      </c>
+      <c r="H144" s="20">
+        <v>0</v>
+      </c>
+      <c r="I144" s="20">
+        <v>0</v>
+      </c>
+      <c r="J144" s="20">
+        <v>0</v>
+      </c>
+      <c r="K144" s="20">
+        <v>0</v>
+      </c>
+      <c r="L144" s="20">
+        <v>0</v>
+      </c>
+      <c r="M144" s="21">
+        <v>2</v>
+      </c>
+      <c r="N144" s="20">
+        <v>0</v>
+      </c>
+      <c r="O144" s="20">
+        <v>0</v>
+      </c>
+      <c r="P144" s="21">
+        <v>9</v>
+      </c>
+      <c r="Q144" s="20">
+        <v>0</v>
+      </c>
+      <c r="R144" s="20">
+        <v>0</v>
+      </c>
+      <c r="S144" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C143">
-        <v>30.869166400000001</v>
-      </c>
-      <c r="D143">
-        <v>-91.303483888888806</v>
-      </c>
-      <c r="E143" s="9">
-        <v>0</v>
-      </c>
-      <c r="F143" s="9">
-        <v>0</v>
-      </c>
-      <c r="G143" s="9">
-        <v>0</v>
-      </c>
-      <c r="H143" s="9">
-        <v>0</v>
-      </c>
-      <c r="I143" s="9">
-        <v>0</v>
-      </c>
-      <c r="J143" s="9">
-        <v>0</v>
-      </c>
-      <c r="K143" s="9">
-        <v>0</v>
-      </c>
-      <c r="L143" s="9">
-        <v>0</v>
-      </c>
-      <c r="M143" s="9">
-        <v>0</v>
-      </c>
-      <c r="N143" s="9">
-        <v>0</v>
-      </c>
-      <c r="O143" s="9">
-        <v>0</v>
-      </c>
-      <c r="P143" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="9">
-        <v>0</v>
-      </c>
-      <c r="R143" s="9">
-        <v>0</v>
-      </c>
-      <c r="S143" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D144" s="4"/>
+      <c r="C145">
+        <v>30.052833333333336</v>
+      </c>
+      <c r="D145">
+        <v>-89.875611111111098</v>
+      </c>
+      <c r="E145" s="20">
+        <v>0</v>
+      </c>
+      <c r="F145" s="20">
+        <v>0</v>
+      </c>
+      <c r="G145" s="20">
+        <v>0</v>
+      </c>
+      <c r="H145" s="20">
+        <v>0</v>
+      </c>
+      <c r="I145" s="20">
+        <v>0</v>
+      </c>
+      <c r="J145" s="20">
+        <v>0</v>
+      </c>
+      <c r="K145" s="20">
+        <v>0</v>
+      </c>
+      <c r="L145" s="20">
+        <v>0</v>
+      </c>
+      <c r="M145" s="20">
+        <v>0</v>
+      </c>
+      <c r="N145" s="20">
+        <v>0</v>
+      </c>
+      <c r="O145" s="20">
+        <v>0</v>
+      </c>
+      <c r="P145" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="20">
+        <v>0</v>
+      </c>
+      <c r="R145" s="20">
+        <v>0</v>
+      </c>
+      <c r="S145" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>30.06527777777778</v>
+      </c>
+      <c r="D146">
+        <v>-89.806527777777774</v>
+      </c>
+      <c r="E146" s="21">
+        <v>2</v>
+      </c>
+      <c r="F146" s="20">
+        <v>0</v>
+      </c>
+      <c r="G146" s="20">
+        <v>0</v>
+      </c>
+      <c r="H146" s="20">
+        <v>0</v>
+      </c>
+      <c r="I146" s="20">
+        <v>0</v>
+      </c>
+      <c r="J146" s="20">
+        <v>0</v>
+      </c>
+      <c r="K146" s="20">
+        <v>0</v>
+      </c>
+      <c r="L146" s="20">
+        <v>0</v>
+      </c>
+      <c r="M146" s="21">
+        <v>1</v>
+      </c>
+      <c r="N146" s="20">
+        <v>0</v>
+      </c>
+      <c r="O146" s="20">
+        <v>0</v>
+      </c>
+      <c r="P146" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="20">
+        <v>0</v>
+      </c>
+      <c r="R146" s="20">
+        <v>0</v>
+      </c>
+      <c r="S146" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>30.068944444444444</v>
+      </c>
+      <c r="D147">
+        <v>-89.802555555555557</v>
+      </c>
+      <c r="E147" s="20">
+        <v>0</v>
+      </c>
+      <c r="F147" s="20">
+        <v>0</v>
+      </c>
+      <c r="G147" s="20">
+        <v>0</v>
+      </c>
+      <c r="H147" s="20">
+        <v>0</v>
+      </c>
+      <c r="I147" s="20">
+        <v>0</v>
+      </c>
+      <c r="J147" s="20">
+        <v>0</v>
+      </c>
+      <c r="K147" s="20">
+        <v>0</v>
+      </c>
+      <c r="L147" s="20">
+        <v>0</v>
+      </c>
+      <c r="M147" s="20">
+        <v>0</v>
+      </c>
+      <c r="N147" s="20">
+        <v>0</v>
+      </c>
+      <c r="O147" s="20">
+        <v>0</v>
+      </c>
+      <c r="P147" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="20">
+        <v>0</v>
+      </c>
+      <c r="R147" s="20">
+        <v>0</v>
+      </c>
+      <c r="S147" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>30.072083333333332</v>
+      </c>
+      <c r="D148">
+        <v>-89.801527777777778</v>
+      </c>
+      <c r="E148" s="20">
+        <v>0</v>
+      </c>
+      <c r="F148" s="20">
+        <v>0</v>
+      </c>
+      <c r="G148" s="20">
+        <v>0</v>
+      </c>
+      <c r="H148" s="20">
+        <v>0</v>
+      </c>
+      <c r="I148" s="20">
+        <v>0</v>
+      </c>
+      <c r="J148" s="20">
+        <v>0</v>
+      </c>
+      <c r="K148" s="20">
+        <v>0</v>
+      </c>
+      <c r="L148" s="20">
+        <v>0</v>
+      </c>
+      <c r="M148" s="20">
+        <v>0</v>
+      </c>
+      <c r="N148" s="20">
+        <v>0</v>
+      </c>
+      <c r="O148" s="20">
+        <v>0</v>
+      </c>
+      <c r="P148" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="20">
+        <v>0</v>
+      </c>
+      <c r="R148" s="20">
+        <v>0</v>
+      </c>
+      <c r="S148" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>31.754988888888889</v>
+      </c>
+      <c r="D149">
+        <v>-92.971277777777786</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>31.869</v>
+      </c>
+      <c r="D150">
+        <v>-92.892361111111114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>31.924694444444444</v>
+      </c>
+      <c r="D151">
+        <v>-92.879027777777765</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>31.914888888888889</v>
+      </c>
+      <c r="D152">
+        <v>-92.873249999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>31.997694444444445</v>
+      </c>
+      <c r="D153">
+        <v>-92.896416666666667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>31.884277777777779</v>
+      </c>
+      <c r="D154">
+        <v>-92.953888888888898</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>31.859527777777778</v>
+      </c>
+      <c r="D155">
+        <v>-92.95952777777778</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>32.306388888888883</v>
+      </c>
+      <c r="D156">
+        <v>-93.650944444444448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>32.325916666666672</v>
+      </c>
+      <c r="D157">
+        <v>-93.718027777777777</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>32.354277777777781</v>
+      </c>
+      <c r="D158">
+        <v>-93.692777777777778</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>32.355472222222225</v>
+      </c>
+      <c r="D159">
+        <v>-93.766194444444452</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>32.700722222222225</v>
+      </c>
+      <c r="D160">
+        <v>-93.943666666666672</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>32.884805555555552</v>
+      </c>
+      <c r="D161">
+        <v>-93.893250000000009</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>32.651805555555555</v>
+      </c>
+      <c r="D162">
+        <v>-93.667277777777784</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>32.583527777777782</v>
+      </c>
+      <c r="D163">
+        <v>-92.070805555555552</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>32.70227777777778</v>
+      </c>
+      <c r="D164">
+        <v>-92.016416666666672</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>32.558944444444442</v>
+      </c>
+      <c r="D165">
+        <v>-91.759638888888887</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>32.292000000000002</v>
+      </c>
+      <c r="D166">
+        <v>-91.763638888888892</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>32.179083333333331</v>
+      </c>
+      <c r="D167">
+        <v>-91.976638888888886</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>31.508861111111113</v>
+      </c>
+      <c r="D168">
+        <v>-92.087361111111107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>32.19233333333333</v>
+      </c>
+      <c r="D169">
+        <v>-91.956888888888898</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>30.7895</v>
+      </c>
+      <c r="D170">
+        <v>-90.698805555555566</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>30.628416666666666</v>
+      </c>
+      <c r="D171">
+        <v>-90.154333333333341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>30.478083333333331</v>
+      </c>
+      <c r="D172">
+        <v>-90.089055555555547</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>30.494194444444446</v>
+      </c>
+      <c r="D173">
+        <v>-90.169833333333344</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14370,10 +16240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A8B15-BF5D-774F-B9D2-DF36EBC05789}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14636,6 +16506,90 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>32.271749999999997</v>
+      </c>
+      <c r="C19">
+        <v>-93.512332999999998</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>124</v>
+      </c>
+      <c r="B20">
+        <v>31.9299167</v>
+      </c>
+      <c r="C20">
+        <v>-91.766943999999995</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>30.406669399999998</v>
+      </c>
+      <c r="C21">
+        <v>-91.692188999999999</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>30.309055600000001</v>
+      </c>
+      <c r="C22">
+        <v>-91.771444000000002</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <v>30.0215</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-90.15313888888889</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>144</v>
+      </c>
+      <c r="B24">
+        <v>30.06527777777778</v>
+      </c>
+      <c r="C24">
+        <v>-89.806527777777774</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14644,10 +16598,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFEB945-8A1B-E94F-BD8C-E98A6236949A}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14879,6 +16833,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>123</v>
+      </c>
+      <c r="B17">
+        <v>32.782611099999997</v>
+      </c>
+      <c r="C17">
+        <v>-92.490806000000006</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14886,10 +16854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BE191B-F40C-4E42-8338-92AFBF23F2EB}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15362,6 +17330,76 @@
         <v>-90.599666666666664</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>122</v>
+      </c>
+      <c r="B34">
+        <v>32.857472199999997</v>
+      </c>
+      <c r="C34">
+        <v>-92.575610999999995</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>123</v>
+      </c>
+      <c r="B35">
+        <v>32.782611099999997</v>
+      </c>
+      <c r="C35">
+        <v>-92.490806000000006</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>129</v>
+      </c>
+      <c r="B36">
+        <v>31.301138900000002</v>
+      </c>
+      <c r="C36">
+        <v>-92.156917000000007</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>133</v>
+      </c>
+      <c r="B37">
+        <v>30.3348333</v>
+      </c>
+      <c r="C37">
+        <v>-90.044332999999995</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>134</v>
+      </c>
+      <c r="B38">
+        <v>30.378900000000002</v>
+      </c>
+      <c r="C38">
+        <v>-90.160970000000006</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15648,10 +17686,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D622A2-17A0-C345-9A61-A2073C208DC6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15782,6 +17820,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>139</v>
+      </c>
+      <c r="B10">
+        <v>30.539805555555557</v>
+      </c>
+      <c r="C10">
+        <v>-89.874499999999998</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/map_data_files/GPS Coordinates - Sites and Species.xlsx
+++ b/map_data_files/GPS Coordinates - Sites and Species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhimehrotra/Desktop/spongehunters/map_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A57B5B-BCDD-F342-A765-F91312CBE15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF5E87-7F4B-EB4D-BA32-CA4337119B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
   </bookViews>

--- a/map_data_files/GPS Coordinates - Sites and Species.xlsx
+++ b/map_data_files/GPS Coordinates - Sites and Species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhimehrotra/Desktop/spongehunters/map_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAF5E87-7F4B-EB4D-BA32-CA4337119B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A01E20-571F-3043-87E3-6D98D9F27623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="7" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate GPS Coordinates" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="27">
   <si>
     <t>Long</t>
   </si>
@@ -7137,9 +7137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A34F3-001A-814F-9795-6302158BAD39}">
   <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A146:D146"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K83" s="10">
         <v>0</v>
@@ -17628,8 +17628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60BEF1D-CE3F-0443-9C24-2B53E5F8D838}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17666,18 +17666,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>83</v>
-      </c>
-      <c r="B3">
-        <v>29.987055555555557</v>
-      </c>
-      <c r="C3">
-        <v>-90.091555555555544</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/map_data_files/GPS Coordinates - Sites and Species.xlsx
+++ b/map_data_files/GPS Coordinates - Sites and Species.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhimehrotra/Desktop/spongehunters/map_data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A01E20-571F-3043-87E3-6D98D9F27623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="7" xr2:uid="{EBB5A95D-9C71-6541-A106-6E906091C46C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate GPS Coordinates" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <sheet name="Dm" sheetId="24" r:id="rId16"/>
     <sheet name="Cb" sheetId="23" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="27">
   <si>
     <t>Long</t>
   </si>
@@ -136,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,20 +578,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AA6257-4E63-BE4C-BA67-DCDA03B0201E}">
-  <dimension ref="A1:L176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="6" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -603,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,7 +633,7 @@
         <v>-91.821166666666656</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -665,7 +664,7 @@
         <v>-91.968888888888884</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -696,7 +695,7 @@
         <v>-91.967916666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -727,7 +726,7 @@
         <v>-92.119972222222216</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -758,7 +757,7 @@
         <v>-92.270083333333332</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -789,7 +788,7 @@
         <v>-92.427777777777777</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -820,7 +819,7 @@
         <v>-93.221111111111114</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -851,7 +850,7 @@
         <v>-93.384944444444457</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -882,7 +881,7 @@
         <v>-93.347777777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -913,7 +912,7 @@
         <v>-93.124444444444435</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -944,7 +943,7 @@
         <v>-93.229722222222222</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -975,7 +974,7 @@
         <v>-93.276111111111106</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>-93.354166666666657</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>-93.3888888888889</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>-93.389166666666668</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>-93.351944444444442</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>-93.046666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>-93.267777777777781</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>-93.367499999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>-93.593888888888884</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>-93.67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>-93.37833333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>-92.922222222222231</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>-92.19305555555556</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>-92.360833333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>-92.895833333333343</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>-92.656416666666672</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>-92.658055555555563</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>-92.658055555555563</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>-90.399972222222232</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>-90.404166666666669</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>-90.44672222222222</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>-91.27847222222222</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>-90.852472222222218</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>-90.751222222222225</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>-90.609416666666661</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>-90.549444444444447</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>-89.956555555555553</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>-89.933805555555566</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>-89.823777777777778</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>-90.074083333333334</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>-90.097444444444434</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>-90.12022222222221</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>-92.022194444444438</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>-92.011583333333334</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>-92.382972222222222</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>-92.483805555555563</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>-93.436472222222221</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>-92.789444444444442</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>-90.113527777777776</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>-90.089333333333329</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>-90.094722222222217</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>-90.03991666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>55</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>-89.84963888888889</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>-90.144583333333344</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>-90.148638888888897</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>-90.993583333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>59</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>-89.738888888888894</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>60</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>-90.953444444444443</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>-91.212083333333339</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>-91.210694444444442</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>63</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>-91.185861111111109</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>64</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>-91.18983333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>-91.215055555555551</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>66</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>-91.244138888888884</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>-91.433777777777777</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>68</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>-91.16825</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>69</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>-91.187194444444444</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>70</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>-91.27847222222222</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>71</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>-90.422444444444452</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>72</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>-91.788333333333327</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>73</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>-92.019499999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>74</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>-92.001444444444445</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>75</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>-91.992249999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>76</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>-91.901055555555558</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>77</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>-91.827305555555554</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>78</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>-91.862722222222217</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>-91.64702777777778</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>-91.544444444444437</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>81</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>-91.608638888888876</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>82</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>-91.97097222222223</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>-90.091555555555544</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>-90.096166666666662</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>-90.140361111111119</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>-90.090305555555545</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>-90.091361111111112</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>-90.422694444444446</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>-90.034083333333328</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>-89.874499999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>-90.115638888888881</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>-90.115638888888881</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>-90.540947777777774</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>-89.784777777777776</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>-89.814472222222221</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>-93.120277777777773</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>-93.084722222222211</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>-93.269722222222228</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>-93.504444444444445</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>-93.520277777777778</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>-92.937222222222232</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>-91.441666666666677</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>-91.226111111111109</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>-91.8611111111111</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>-91.905277777777783</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>-91.936388888888899</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>-91.1815</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" s="4" t="s">
         <v>22</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>-91.16825</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" s="4" t="s">
         <v>23</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>-91.168444444444447</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12">
       <c r="A113" s="4" t="s">
         <v>24</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>-91.172916666666666</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12">
       <c r="A114" s="4" t="s">
         <v>25</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>-91.169750000000008</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>110</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>-90.476001111111117</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>111</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>-90.407333333333341</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>112</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>-90.647333333333336</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>113</v>
       </c>
@@ -4138,7 +4137,7 @@
       </c>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>114</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>-90.599666666666664</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>115</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>-91.089601111111108</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>116</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>-91.0889825</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>117</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>-93.512333333333331</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>118</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>-93.741</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>119</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>-93.850388888888887</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>120</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>-92.6418888888889</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>121</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>-92.649861111111122</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>122</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>-92.575611111111101</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>123</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>-92.490805555555553</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>124</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>-91.766944444444448</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>125</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>-91.192222222222227</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>126</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>-91.834777777777774</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>127</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>-92.02480555555556</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>128</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>-92.023250000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>129</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>-92.156916666666675</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>130</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>15.49</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" ref="E135:E176" si="18">B135+C135/60+D135/3600</f>
+        <f t="shared" ref="E135:E183" si="18">B135+C135/60+D135/3600</f>
         <v>30.370969444444444</v>
       </c>
       <c r="F135" s="1">
@@ -4661,11 +4660,11 @@
         <v>31.54</v>
       </c>
       <c r="I135">
-        <f t="shared" ref="I135:I176" si="19">-F135-G135/60-H135/3600</f>
+        <f t="shared" ref="I135:I183" si="19">-F135-G135/60-H135/3600</f>
         <v>-91.625427777777773</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>131</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>-91.692188888888893</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>132</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>-91.771444444444441</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>133</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>-90.044333333333327</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>134</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>-90.160970000000006</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>135</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>-90.004149722222223</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>136</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>-89.831429722222225</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>137</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>-89.73742</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>138</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>-90.094740000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>139</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>-89.874499999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>140</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>-91.511231944444447</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>141</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>-90.15313888888889</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>142</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>-90.08197222222222</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>143</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>-89.875611111111098</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>144</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>-89.806527777777774</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>145</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>-89.802555555555557</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>146</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>-89.801527777777778</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>147</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>-92.971277777777786</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>148</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>-92.892361111111114</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>149</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>-92.879027777777765</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>150</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>-92.873249999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>151</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>-92.896416666666667</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>152</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>-92.953888888888898</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>153</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>-92.95952777777778</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>154</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>-93.650944444444448</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>155</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>-93.718027777777777</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>156</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>-93.692777777777778</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>157</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>-93.766194444444452</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>158</v>
       </c>
@@ -5533,7 +5532,7 @@
         <v>-93.943666666666672</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>159</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>-93.893250000000009</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>160</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>-93.667277777777784</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="A166">
         <v>161</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>-92.070805555555552</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9">
       <c r="A167">
         <v>162</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>-92.016416666666672</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168">
         <v>163</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>-91.759638888888887</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9">
       <c r="A169">
         <v>164</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>-91.763638888888892</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170">
         <v>165</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>-91.976638888888886</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171">
         <v>166</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>-92.087361111111107</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9">
       <c r="A172">
         <v>167</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>-91.956888888888898</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173">
         <v>168</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>-90.698805555555566</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174">
         <v>169</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>-90.154333333333341</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175">
         <v>170</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>-90.089055555555547</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176">
         <v>171</v>
       </c>
@@ -5934,6 +5933,223 @@
       <c r="I176">
         <f t="shared" si="19"/>
         <v>-90.169833333333344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>172</v>
+      </c>
+      <c r="B177" s="1">
+        <v>30</v>
+      </c>
+      <c r="C177">
+        <v>21</v>
+      </c>
+      <c r="D177">
+        <v>46.484000000000002</v>
+      </c>
+      <c r="E177" s="4">
+        <f t="shared" si="18"/>
+        <v>30.362912222222224</v>
+      </c>
+      <c r="F177" s="1">
+        <v>89</v>
+      </c>
+      <c r="G177">
+        <v>44</v>
+      </c>
+      <c r="H177">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="19"/>
+        <v>-89.734103055555551</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>173</v>
+      </c>
+      <c r="B178" s="1">
+        <v>30</v>
+      </c>
+      <c r="C178">
+        <v>30</v>
+      </c>
+      <c r="D178">
+        <v>20.771999999999998</v>
+      </c>
+      <c r="E178" s="4">
+        <f t="shared" si="18"/>
+        <v>30.505769999999998</v>
+      </c>
+      <c r="F178" s="1">
+        <v>89</v>
+      </c>
+      <c r="G178">
+        <v>58</v>
+      </c>
+      <c r="H178">
+        <v>34.174999999999997</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="19"/>
+        <v>-89.976159722222221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>174</v>
+      </c>
+      <c r="B179" s="1">
+        <v>30</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>53.64</v>
+      </c>
+      <c r="E179" s="4">
+        <f t="shared" si="18"/>
+        <v>30.014900000000001</v>
+      </c>
+      <c r="F179" s="1">
+        <v>91</v>
+      </c>
+      <c r="G179">
+        <v>9</v>
+      </c>
+      <c r="H179">
+        <v>18.36</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="19"/>
+        <v>-91.155100000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>175</v>
+      </c>
+      <c r="B180" s="1">
+        <v>30</v>
+      </c>
+      <c r="C180">
+        <v>16</v>
+      </c>
+      <c r="D180">
+        <v>18.468</v>
+      </c>
+      <c r="E180" s="4">
+        <f t="shared" si="18"/>
+        <v>30.271796666666667</v>
+      </c>
+      <c r="F180" s="1">
+        <v>91</v>
+      </c>
+      <c r="G180">
+        <v>15</v>
+      </c>
+      <c r="H180">
+        <v>35.661000000000001</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="19"/>
+        <v>-91.259905833333335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>176</v>
+      </c>
+      <c r="B181" s="1">
+        <v>30</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+      <c r="D181">
+        <v>32.094000000000001</v>
+      </c>
+      <c r="E181" s="4">
+        <f t="shared" si="18"/>
+        <v>30.258914999999998</v>
+      </c>
+      <c r="F181" s="1">
+        <v>91</v>
+      </c>
+      <c r="G181">
+        <v>19</v>
+      </c>
+      <c r="H181">
+        <v>19.001000000000001</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="19"/>
+        <v>-91.321944722222213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>177</v>
+      </c>
+      <c r="B182" s="1">
+        <v>30</v>
+      </c>
+      <c r="C182">
+        <v>10</v>
+      </c>
+      <c r="D182">
+        <v>6.3529999999999998</v>
+      </c>
+      <c r="E182" s="4">
+        <f t="shared" si="18"/>
+        <v>30.168431388888891</v>
+      </c>
+      <c r="F182" s="1">
+        <v>91</v>
+      </c>
+      <c r="G182">
+        <v>21</v>
+      </c>
+      <c r="H182">
+        <v>8.7739999999999991</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="19"/>
+        <v>-91.352437222222221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>178</v>
+      </c>
+      <c r="B183" s="1">
+        <v>30</v>
+      </c>
+      <c r="C183">
+        <v>23</v>
+      </c>
+      <c r="D183">
+        <v>59.92</v>
+      </c>
+      <c r="E183" s="4">
+        <f t="shared" si="18"/>
+        <v>30.399977777777778</v>
+      </c>
+      <c r="F183" s="1">
+        <v>91</v>
+      </c>
+      <c r="G183">
+        <v>30</v>
+      </c>
+      <c r="H183">
+        <v>43.207999999999998</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="19"/>
+        <v>-91.512002222222222</v>
       </c>
     </row>
   </sheetData>
@@ -5943,16 +6159,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D76825C-C293-7549-99D8-78EF98420F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -5966,7 +6182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -5980,7 +6196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>21</v>
       </c>
@@ -5994,7 +6210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>22</v>
       </c>
@@ -6008,7 +6224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>23</v>
       </c>
@@ -6022,7 +6238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>25</v>
       </c>
@@ -6036,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>26</v>
       </c>
@@ -6050,7 +6266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>28</v>
       </c>
@@ -6064,7 +6280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>30</v>
       </c>
@@ -6078,7 +6294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>31</v>
       </c>
@@ -6092,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>33</v>
       </c>
@@ -6106,7 +6322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>46</v>
       </c>
@@ -6120,7 +6336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>51</v>
       </c>
@@ -6134,7 +6350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>64</v>
       </c>
@@ -6148,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>69</v>
       </c>
@@ -6162,7 +6378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>70</v>
       </c>
@@ -6176,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>73</v>
       </c>
@@ -6190,7 +6406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>74</v>
       </c>
@@ -6204,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>76</v>
       </c>
@@ -6218,7 +6434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>79</v>
       </c>
@@ -6232,7 +6448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>80</v>
       </c>
@@ -6246,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>82</v>
       </c>
@@ -6260,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>83</v>
       </c>
@@ -6277,7 +6493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>84</v>
       </c>
@@ -6294,7 +6510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>86</v>
       </c>
@@ -6308,7 +6524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>97</v>
       </c>
@@ -6322,7 +6538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>99</v>
       </c>
@@ -6336,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>100</v>
       </c>
@@ -6350,7 +6566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>102</v>
       </c>
@@ -6364,7 +6580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>103</v>
       </c>
@@ -6378,7 +6594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>104</v>
       </c>
@@ -6392,7 +6608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>105</v>
       </c>
@@ -6406,7 +6622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>108</v>
       </c>
@@ -6420,7 +6636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -6434,7 +6650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -6448,7 +6664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
@@ -6462,7 +6678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>112</v>
       </c>
@@ -6476,7 +6692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>113</v>
       </c>
@@ -6490,7 +6706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>114</v>
       </c>
@@ -6504,7 +6720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>117</v>
       </c>
@@ -6518,7 +6734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>119</v>
       </c>
@@ -6532,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>123</v>
       </c>
@@ -6546,7 +6762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>124</v>
       </c>
@@ -6560,7 +6776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>125</v>
       </c>
@@ -6574,7 +6790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>126</v>
       </c>
@@ -6594,19 +6810,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDF0D-3A19-D448-B6E0-DF89803F0E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -6620,7 +6836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>33</v>
       </c>
@@ -6634,7 +6850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>83</v>
       </c>
@@ -6648,7 +6864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>84</v>
       </c>
@@ -6662,7 +6878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>86</v>
       </c>
@@ -6676,7 +6892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>92</v>
       </c>
@@ -6690,7 +6906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>141</v>
       </c>
@@ -6704,7 +6920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>142</v>
       </c>
@@ -6718,7 +6934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>144</v>
       </c>
@@ -6738,16 +6954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C81C191-73FC-1D4C-874E-DD6089F6BB59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -6761,7 +6977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -6775,7 +6991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>22</v>
       </c>
@@ -6789,7 +7005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>26</v>
       </c>
@@ -6803,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>95</v>
       </c>
@@ -6817,7 +7033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>96</v>
       </c>
@@ -6837,16 +7053,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B2042A-905E-724E-B484-350369DB7603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -6860,7 +7076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>60</v>
       </c>
@@ -6874,7 +7090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>83</v>
       </c>
@@ -6888,7 +7104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>102</v>
       </c>
@@ -6902,7 +7118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>123</v>
       </c>
@@ -6916,7 +7132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>129</v>
       </c>
@@ -6936,16 +7152,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6000E8CD-7D19-7641-9D62-663F790AA58A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -6959,7 +7175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>84</v>
       </c>
@@ -6973,7 +7189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>89</v>
       </c>
@@ -6987,7 +7203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>92</v>
       </c>
@@ -7001,7 +7217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>142</v>
       </c>
@@ -7021,16 +7237,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C22330E-0D86-4E4B-AF38-E8F6BCF2BAC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -7044,7 +7260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>67</v>
       </c>
@@ -7064,16 +7280,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CF431B-A7D2-C349-B9BA-127C9E8B859D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -7087,7 +7303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>95</v>
       </c>
@@ -7107,14 +7323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8BC72-9639-9546-8AF8-630AC5E278EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -7134,23 +7350,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7A34F3-001A-814F-9795-6302158BAD39}">
-  <dimension ref="A1:U173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="16" width="10.83203125" style="9" customWidth="1"/>
-    <col min="17" max="19" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="10.875" style="4"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="16" width="10.875" style="9" customWidth="1"/>
+    <col min="17" max="19" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -7209,7 +7425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7268,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7327,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7386,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7445,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7504,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7563,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7622,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7681,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7740,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7799,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7858,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7917,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7976,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8035,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8094,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8153,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8212,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8271,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8330,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="15" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8389,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8448,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8507,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8566,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8625,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8684,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8743,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8802,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8861,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8920,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8979,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9038,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9097,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9156,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9215,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9274,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9333,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9392,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9451,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9510,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9569,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9628,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9687,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -9746,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>45</v>
       </c>
@@ -9805,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>46</v>
       </c>
@@ -9864,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>47</v>
       </c>
@@ -9923,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>48</v>
       </c>
@@ -9982,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>49</v>
       </c>
@@ -10041,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>50</v>
       </c>
@@ -10100,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>51</v>
       </c>
@@ -10159,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>52</v>
       </c>
@@ -10218,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>53</v>
       </c>
@@ -10277,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>54</v>
       </c>
@@ -10336,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>55</v>
       </c>
@@ -10395,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>56</v>
       </c>
@@ -10454,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>57</v>
       </c>
@@ -10513,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>58</v>
       </c>
@@ -10572,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>59</v>
       </c>
@@ -10631,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>60</v>
       </c>
@@ -10690,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>61</v>
       </c>
@@ -10749,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>62</v>
       </c>
@@ -10808,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>63</v>
       </c>
@@ -10867,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>64</v>
       </c>
@@ -10926,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19">
       <c r="A65">
         <v>65</v>
       </c>
@@ -10985,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>66</v>
       </c>
@@ -11044,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="15" customHeight="1">
       <c r="A67">
         <v>67</v>
       </c>
@@ -11103,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19">
       <c r="A68">
         <v>68</v>
       </c>
@@ -11162,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19">
       <c r="A69">
         <v>69</v>
       </c>
@@ -11221,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19">
       <c r="A70">
         <v>70</v>
       </c>
@@ -11280,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19">
       <c r="A71">
         <v>71</v>
       </c>
@@ -11339,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19">
       <c r="A72">
         <v>72</v>
       </c>
@@ -11398,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19">
       <c r="A73">
         <v>73</v>
       </c>
@@ -11457,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19">
       <c r="A74">
         <v>74</v>
       </c>
@@ -11516,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19">
       <c r="A75">
         <v>75</v>
       </c>
@@ -11575,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19">
       <c r="A76">
         <v>76</v>
       </c>
@@ -11634,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19">
       <c r="A77">
         <v>77</v>
       </c>
@@ -11693,7 +11909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19">
       <c r="A78">
         <v>78</v>
       </c>
@@ -11752,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19">
       <c r="A79">
         <v>79</v>
       </c>
@@ -11811,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19">
       <c r="A80">
         <v>80</v>
       </c>
@@ -11870,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>81</v>
       </c>
@@ -11929,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>82</v>
       </c>
@@ -11988,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>83</v>
       </c>
@@ -12047,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>84</v>
       </c>
@@ -12106,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>85</v>
       </c>
@@ -12165,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>86</v>
       </c>
@@ -12224,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>87</v>
       </c>
@@ -12283,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>88</v>
       </c>
@@ -12344,7 +12560,7 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>89</v>
       </c>
@@ -12403,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>90</v>
       </c>
@@ -12462,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>91</v>
       </c>
@@ -12521,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>92</v>
       </c>
@@ -12580,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>93</v>
       </c>
@@ -12639,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>95</v>
       </c>
@@ -12698,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>96</v>
       </c>
@@ -12757,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>97</v>
       </c>
@@ -12816,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19">
       <c r="A97">
         <v>98</v>
       </c>
@@ -12875,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19">
       <c r="A98">
         <v>99</v>
       </c>
@@ -12934,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>100</v>
       </c>
@@ -12993,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19">
       <c r="A100">
         <v>102</v>
       </c>
@@ -13052,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19">
       <c r="A101">
         <v>103</v>
       </c>
@@ -13111,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19">
       <c r="A102">
         <v>104</v>
       </c>
@@ -13170,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19">
       <c r="A103">
         <v>105</v>
       </c>
@@ -13229,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19">
       <c r="A104">
         <v>106</v>
       </c>
@@ -13288,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19">
       <c r="A105">
         <v>107</v>
       </c>
@@ -13347,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19">
       <c r="A106">
         <v>108</v>
       </c>
@@ -13406,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19">
       <c r="A107">
         <v>109</v>
       </c>
@@ -13465,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19">
       <c r="A108" s="4" t="s">
         <v>22</v>
       </c>
@@ -13524,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
         <v>23</v>
       </c>
@@ -13583,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19">
       <c r="A110" s="4" t="s">
         <v>24</v>
       </c>
@@ -13642,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
         <v>25</v>
       </c>
@@ -13701,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19">
       <c r="A112">
         <v>110</v>
       </c>
@@ -13760,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19">
       <c r="A113">
         <v>111</v>
       </c>
@@ -13819,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19">
       <c r="A114">
         <v>112</v>
       </c>
@@ -13878,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19">
       <c r="A115">
         <v>113</v>
       </c>
@@ -13937,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19">
       <c r="A116">
         <v>114</v>
       </c>
@@ -13996,7 +14212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19">
       <c r="A117">
         <v>115</v>
       </c>
@@ -14055,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19">
       <c r="A118">
         <v>116</v>
       </c>
@@ -14114,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19">
       <c r="A119">
         <v>117</v>
       </c>
@@ -14173,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19">
       <c r="A120">
         <v>118</v>
       </c>
@@ -14232,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19">
       <c r="A121">
         <v>119</v>
       </c>
@@ -14288,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19">
       <c r="A122">
         <v>120</v>
       </c>
@@ -14347,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19">
       <c r="A123">
         <v>121</v>
       </c>
@@ -14406,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19">
       <c r="A124">
         <v>122</v>
       </c>
@@ -14465,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19">
       <c r="A125">
         <v>123</v>
       </c>
@@ -14524,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19">
       <c r="A126">
         <v>124</v>
       </c>
@@ -14583,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19">
       <c r="A127">
         <v>125</v>
       </c>
@@ -14642,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19">
       <c r="A128">
         <v>126</v>
       </c>
@@ -14701,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129">
         <v>127</v>
       </c>
@@ -14760,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130">
         <v>128</v>
       </c>
@@ -14819,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131">
         <v>129</v>
       </c>
@@ -14878,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132">
         <v>130</v>
       </c>
@@ -14937,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133">
         <v>131</v>
       </c>
@@ -14996,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134">
         <v>132</v>
       </c>
@@ -15056,7 +15272,7 @@
       </c>
       <c r="T134" s="18"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135">
         <v>133</v>
       </c>
@@ -15115,7 +15331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136">
         <v>134</v>
       </c>
@@ -15174,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137">
         <v>135</v>
       </c>
@@ -15233,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138">
         <v>136</v>
       </c>
@@ -15292,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139">
         <v>137</v>
       </c>
@@ -15351,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140">
         <v>138</v>
       </c>
@@ -15410,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141">
         <v>139</v>
       </c>
@@ -15469,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142">
         <v>140</v>
       </c>
@@ -15528,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143">
         <v>141</v>
       </c>
@@ -15587,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144">
         <v>142</v>
       </c>
@@ -15646,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19">
       <c r="A145">
         <v>143</v>
       </c>
@@ -15705,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19">
       <c r="A146">
         <v>144</v>
       </c>
@@ -15764,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19">
       <c r="A147">
         <v>145</v>
       </c>
@@ -15823,7 +16039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19">
       <c r="A148">
         <v>146</v>
       </c>
@@ -15882,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19">
       <c r="A149">
         <v>147</v>
       </c>
@@ -15896,7 +16112,7 @@
         <v>-92.971277777777786</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19">
       <c r="A150">
         <v>148</v>
       </c>
@@ -15910,7 +16126,7 @@
         <v>-92.892361111111114</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19">
       <c r="A151">
         <v>149</v>
       </c>
@@ -15924,7 +16140,7 @@
         <v>-92.879027777777765</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19">
       <c r="A152">
         <v>150</v>
       </c>
@@ -15938,7 +16154,7 @@
         <v>-92.873249999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19">
       <c r="A153">
         <v>151</v>
       </c>
@@ -15952,7 +16168,7 @@
         <v>-92.896416666666667</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19">
       <c r="A154">
         <v>152</v>
       </c>
@@ -15966,7 +16182,7 @@
         <v>-92.953888888888898</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19">
       <c r="A155">
         <v>153</v>
       </c>
@@ -15980,7 +16196,7 @@
         <v>-92.95952777777778</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19">
       <c r="A156">
         <v>154</v>
       </c>
@@ -15994,7 +16210,7 @@
         <v>-93.650944444444448</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19">
       <c r="A157">
         <v>155</v>
       </c>
@@ -16008,7 +16224,7 @@
         <v>-93.718027777777777</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19">
       <c r="A158">
         <v>156</v>
       </c>
@@ -16022,7 +16238,7 @@
         <v>-93.692777777777778</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19">
       <c r="A159">
         <v>157</v>
       </c>
@@ -16036,7 +16252,7 @@
         <v>-93.766194444444452</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19">
       <c r="A160">
         <v>158</v>
       </c>
@@ -16050,7 +16266,7 @@
         <v>-93.943666666666672</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>159</v>
       </c>
@@ -16064,7 +16280,7 @@
         <v>-93.893250000000009</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>160</v>
       </c>
@@ -16078,7 +16294,7 @@
         <v>-93.667277777777784</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>161</v>
       </c>
@@ -16092,7 +16308,7 @@
         <v>-92.070805555555552</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>162</v>
       </c>
@@ -16106,7 +16322,7 @@
         <v>-92.016416666666672</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>163</v>
       </c>
@@ -16120,7 +16336,7 @@
         <v>-91.759638888888887</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>164</v>
       </c>
@@ -16134,7 +16350,7 @@
         <v>-91.763638888888892</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>165</v>
       </c>
@@ -16148,7 +16364,7 @@
         <v>-91.976638888888886</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>166</v>
       </c>
@@ -16162,7 +16378,7 @@
         <v>-92.087361111111107</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>167</v>
       </c>
@@ -16176,7 +16392,7 @@
         <v>-91.956888888888898</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>168</v>
       </c>
@@ -16190,7 +16406,7 @@
         <v>-90.698805555555566</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>169</v>
       </c>
@@ -16204,7 +16420,7 @@
         <v>-90.154333333333341</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>170</v>
       </c>
@@ -16218,7 +16434,7 @@
         <v>-90.089055555555547</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>171</v>
       </c>
@@ -16230,6 +16446,104 @@
       </c>
       <c r="D173">
         <v>-90.169833333333344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>30.362912222222224</v>
+      </c>
+      <c r="D174">
+        <v>-89.734103055555551</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>30.505769999999998</v>
+      </c>
+      <c r="D175">
+        <v>-89.976159722222221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>30.014900000000001</v>
+      </c>
+      <c r="D176">
+        <v>-91.155100000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>30.271796666666667</v>
+      </c>
+      <c r="D177">
+        <v>-91.259905833333335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>30.258914999999998</v>
+      </c>
+      <c r="D178">
+        <v>-91.321944722222213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>30.168431388888891</v>
+      </c>
+      <c r="D179">
+        <v>-91.352437222222221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>30.399977777777778</v>
+      </c>
+      <c r="D180">
+        <v>-91.512002222222222</v>
       </c>
     </row>
   </sheetData>
@@ -16239,21 +16553,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A8B15-BF5D-774F-B9D2-DF36EBC05789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.875" style="4"/>
+    <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -16268,7 +16582,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -16282,7 +16596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>42</v>
       </c>
@@ -16296,7 +16610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>50</v>
       </c>
@@ -16310,7 +16624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -16324,7 +16638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>66</v>
       </c>
@@ -16338,7 +16652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>67</v>
       </c>
@@ -16352,7 +16666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>81</v>
       </c>
@@ -16366,7 +16680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
         <v>82</v>
       </c>
@@ -16380,7 +16694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>83</v>
       </c>
@@ -16394,7 +16708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>84</v>
       </c>
@@ -16408,7 +16722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>86</v>
       </c>
@@ -16422,7 +16736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>87</v>
       </c>
@@ -16436,7 +16750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>92</v>
       </c>
@@ -16450,7 +16764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="4">
         <v>97</v>
       </c>
@@ -16464,7 +16778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>98</v>
       </c>
@@ -16478,7 +16792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>110</v>
       </c>
@@ -16492,7 +16806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>111</v>
       </c>
@@ -16506,7 +16820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>117</v>
       </c>
@@ -16520,7 +16834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>124</v>
       </c>
@@ -16534,7 +16848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>131</v>
       </c>
@@ -16548,7 +16862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>132</v>
       </c>
@@ -16562,7 +16876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>141</v>
       </c>
@@ -16576,7 +16890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>144</v>
       </c>
@@ -16597,19 +16911,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFEB945-8A1B-E94F-BD8C-E98A6236949A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="4" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -16623,7 +16937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>10</v>
       </c>
@@ -16637,7 +16951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>15</v>
       </c>
@@ -16651,7 +16965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -16665,7 +16979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10">
         <v>21</v>
       </c>
@@ -16679,7 +16993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10">
         <v>22</v>
       </c>
@@ -16693,7 +17007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -16707,7 +17021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>26</v>
       </c>
@@ -16721,7 +17035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>35</v>
       </c>
@@ -16735,7 +17049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>36</v>
       </c>
@@ -16749,7 +17063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>46</v>
       </c>
@@ -16763,7 +17077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>60</v>
       </c>
@@ -16777,7 +17091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>81</v>
       </c>
@@ -16791,7 +17105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>85</v>
       </c>
@@ -16805,7 +17119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>95</v>
       </c>
@@ -16819,7 +17133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>96</v>
       </c>
@@ -16833,7 +17147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>123</v>
       </c>
@@ -16853,19 +17167,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BE191B-F40C-4E42-8338-92AFBF23F2EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="4" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -16879,7 +17193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -16893,7 +17207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -16910,7 +17224,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>7</v>
       </c>
@@ -16924,7 +17238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -16938,7 +17252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>12</v>
       </c>
@@ -16952,7 +17266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>15</v>
       </c>
@@ -16966,7 +17280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>17</v>
       </c>
@@ -16980,7 +17294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>22</v>
       </c>
@@ -16994,7 +17308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>23</v>
       </c>
@@ -17008,7 +17322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>24</v>
       </c>
@@ -17022,7 +17336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>25</v>
       </c>
@@ -17036,7 +17350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>26</v>
       </c>
@@ -17050,7 +17364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>28</v>
       </c>
@@ -17064,7 +17378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>31</v>
       </c>
@@ -17078,7 +17392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -17092,7 +17406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>35</v>
       </c>
@@ -17106,7 +17420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>36</v>
       </c>
@@ -17120,7 +17434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>39</v>
       </c>
@@ -17134,7 +17448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>46</v>
       </c>
@@ -17148,7 +17462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>50</v>
       </c>
@@ -17162,7 +17476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>51</v>
       </c>
@@ -17176,7 +17490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>57</v>
       </c>
@@ -17190,7 +17504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>59</v>
       </c>
@@ -17204,7 +17518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>76</v>
       </c>
@@ -17221,7 +17535,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>81</v>
       </c>
@@ -17235,7 +17549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>82</v>
       </c>
@@ -17249,7 +17563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>102</v>
       </c>
@@ -17263,7 +17577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>110</v>
       </c>
@@ -17277,7 +17591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>111</v>
       </c>
@@ -17291,7 +17605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>112</v>
       </c>
@@ -17305,7 +17619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>113</v>
       </c>
@@ -17319,7 +17633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>114</v>
       </c>
@@ -17333,7 +17647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>122</v>
       </c>
@@ -17347,7 +17661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>123</v>
       </c>
@@ -17361,7 +17675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>129</v>
       </c>
@@ -17375,7 +17689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>133</v>
       </c>
@@ -17389,7 +17703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>134</v>
       </c>
@@ -17409,17 +17723,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315B13CB-C6BA-7140-B5CF-8BC87ED9342E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="4" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -17433,7 +17747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>21</v>
       </c>
@@ -17447,7 +17761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>26</v>
       </c>
@@ -17461,7 +17775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>76</v>
       </c>
@@ -17481,19 +17795,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1F5961-E825-4849-965F-9B131C99E3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="4" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -17507,7 +17821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>21</v>
       </c>
@@ -17521,7 +17835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>31</v>
       </c>
@@ -17535,7 +17849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>33</v>
       </c>
@@ -17549,7 +17863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>46</v>
       </c>
@@ -17563,7 +17877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>60</v>
       </c>
@@ -17577,7 +17891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>74</v>
       </c>
@@ -17591,7 +17905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>108</v>
       </c>
@@ -17605,7 +17919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>112</v>
       </c>
@@ -17625,19 +17939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60BEF1D-CE3F-0443-9C24-2B53E5F8D838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="4" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -17651,7 +17965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>48</v>
       </c>
@@ -17665,7 +17979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3"/>
       <c r="C3"/>
     </row>
@@ -17675,16 +17989,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D622A2-17A0-C345-9A61-A2073C208DC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -17698,7 +18012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>9</v>
       </c>
@@ -17712,7 +18026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>20</v>
       </c>
@@ -17726,7 +18040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>21</v>
       </c>
@@ -17740,7 +18054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>22</v>
       </c>
@@ -17754,7 +18068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>26</v>
       </c>
@@ -17768,7 +18082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>33</v>
       </c>
@@ -17782,7 +18096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>43</v>
       </c>
@@ -17796,7 +18110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>90</v>
       </c>
@@ -17810,7 +18124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>139</v>
       </c>

--- a/map_data_files/GPS Coordinates - Sites and Species.xlsx
+++ b/map_data_files/GPS Coordinates - Sites and Species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spongehunters\map_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="27">
   <si>
     <t>Long</t>
   </si>
@@ -579,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+      <selection activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4647,7 +4647,7 @@
         <v>15.49</v>
       </c>
       <c r="E135" s="4">
-        <f t="shared" ref="E135:E183" si="18">B135+C135/60+D135/3600</f>
+        <f t="shared" ref="E135:E184" si="18">B135+C135/60+D135/3600</f>
         <v>30.370969444444444</v>
       </c>
       <c r="F135" s="1">
@@ -4660,7 +4660,7 @@
         <v>31.54</v>
       </c>
       <c r="I135">
-        <f t="shared" ref="I135:I183" si="19">-F135-G135/60-H135/3600</f>
+        <f t="shared" ref="I135:I184" si="19">-F135-G135/60-H135/3600</f>
         <v>-91.625427777777773</v>
       </c>
     </row>
@@ -6150,6 +6150,37 @@
       <c r="I183">
         <f t="shared" si="19"/>
         <v>-91.512002222222222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>179</v>
+      </c>
+      <c r="B184" s="1">
+        <v>30</v>
+      </c>
+      <c r="C184">
+        <v>34</v>
+      </c>
+      <c r="D184">
+        <v>8.9760000000000009</v>
+      </c>
+      <c r="E184" s="4">
+        <f t="shared" si="18"/>
+        <v>30.56916</v>
+      </c>
+      <c r="F184" s="1">
+        <v>91</v>
+      </c>
+      <c r="G184">
+        <v>9</v>
+      </c>
+      <c r="H184">
+        <v>57.887</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="19"/>
+        <v>-91.166079722222221</v>
       </c>
     </row>
   </sheetData>
@@ -6811,10 +6842,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6838,13 +6869,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>30.126750000000001</v>
+        <v>29.987055555555557</v>
       </c>
       <c r="C2">
-        <v>-91.27847222222222</v>
+        <v>-90.091555555555544</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -6852,13 +6883,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>29.987055555555557</v>
+        <v>30.00375</v>
       </c>
       <c r="C3">
-        <v>-90.091555555555544</v>
+        <v>-90.096166666666662</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
@@ -6866,13 +6897,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4">
-        <v>30.00375</v>
+        <v>29.983249999999998</v>
       </c>
       <c r="C4">
-        <v>-90.096166666666662</v>
+        <v>-90.090305555555545</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
@@ -6880,13 +6911,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>29.983249999999998</v>
+        <v>30.02547222222222</v>
       </c>
       <c r="C5">
-        <v>-90.090305555555545</v>
+        <v>-90.115638888888881</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -6894,13 +6925,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="B6">
-        <v>30.02547222222222</v>
-      </c>
-      <c r="C6">
-        <v>-90.115638888888881</v>
+        <v>30.0215</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-90.15313888888889</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
@@ -6908,13 +6939,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7">
-        <v>30.0215</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-90.15313888888889</v>
+        <v>30.026527777777776</v>
+      </c>
+      <c r="C7">
+        <v>-90.08197222222222</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
@@ -6922,29 +6953,15 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8">
-        <v>30.026527777777776</v>
+        <v>30.06527777777778</v>
       </c>
       <c r="C8">
-        <v>-90.08197222222222</v>
+        <v>-89.806527777777774</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>144</v>
-      </c>
-      <c r="B9">
-        <v>30.06527777777778</v>
-      </c>
-      <c r="C9">
-        <v>-89.806527777777774</v>
-      </c>
-      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6955,10 +6972,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7021,13 +7038,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>30.456499999999998</v>
+        <v>30.126750000000001</v>
       </c>
       <c r="C5">
-        <v>-89.784777777777776</v>
+        <v>-91.27847222222222</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -7035,15 +7052,29 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>30.456499999999998</v>
+      </c>
+      <c r="C6">
+        <v>-89.784777777777776</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>96</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>30.49677777777778</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-89.814472222222221</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7351,11 +7382,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U180"/>
+  <dimension ref="A1:U181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -9351,10 +9382,10 @@
         <v>1</v>
       </c>
       <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
         <v>2</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0</v>
       </c>
       <c r="O34" s="10">
         <v>0</v>
@@ -16544,6 +16575,20 @@
       </c>
       <c r="D180">
         <v>-91.512002222222222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>30.56916</v>
+      </c>
+      <c r="D181">
+        <v>-91.166079722222221</v>
       </c>
     </row>
   </sheetData>
